--- a/ode_results.xlsx
+++ b/ode_results.xlsx
@@ -514,10 +514,10 @@
         <v>0.01</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9999000020833139</v>
+        <v>0.9999000020833138</v>
       </c>
       <c r="C3" t="n">
-        <v>4.999833335139758e-05</v>
+        <v>4.999833335134207e-05</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -575,7 +575,7 @@
         <v>0.9991001687358256</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004498650131618542</v>
+        <v>0.0004498650131619097</v>
       </c>
       <c r="D5" t="n">
         <v>0.9994000000000001</v>
@@ -601,10 +601,10 @@
         <v>0.04</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9984005332536956</v>
+        <v>0.9984005332536955</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007995734072823724</v>
+        <v>0.0007995734072824279</v>
       </c>
       <c r="D6" t="n">
         <v>0.9988000500000001</v>
@@ -630,10 +630,10 @@
         <v>0.05</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9975013017795537</v>
+        <v>0.9975013017795535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001248958615412632</v>
+        <v>0.001248958615412576</v>
       </c>
       <c r="D7" t="n">
         <v>0.99800025</v>
@@ -659,10 +659,10 @@
         <v>0.06</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9964026990929709</v>
+        <v>0.9964026990929707</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001797840842233389</v>
+        <v>0.001797840842233445</v>
       </c>
       <c r="D8" t="n">
         <v>0.9970007499860001</v>
@@ -804,10 +804,10 @@
         <v>0.11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9879304676581026</v>
+        <v>0.9879304676581024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006025630298594264</v>
+        <v>0.00602563029859432</v>
       </c>
       <c r="D13" t="n">
         <v>0.9890164935326766</v>
@@ -923,7 +923,7 @@
         <v>0.9776052475260426</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01116583040999963</v>
+        <v>0.01116583040999958</v>
       </c>
       <c r="D17" t="n">
         <v>0.97906817995638</v>
@@ -1094,10 +1094,10 @@
         <v>0.21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9563035049158973</v>
+        <v>0.9563035049158972</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02172740980825094</v>
+        <v>0.02172740980825089</v>
       </c>
       <c r="D23" t="n">
         <v>0.958298491137879</v>
@@ -1181,10 +1181,10 @@
         <v>0.24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.943087495280686</v>
+        <v>0.9430874952806859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02825047957134369</v>
+        <v>0.02825047957134375</v>
       </c>
       <c r="D26" t="n">
         <v>0.9453294186690396</v>
@@ -1213,7 +1213,7 @@
         <v>0.9383090703886265</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03060335132201819</v>
+        <v>0.03060335132201825</v>
       </c>
       <c r="D27" t="n">
         <v>0.9406300250304718</v>
@@ -1239,10 +1239,10 @@
         <v>0.26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9333460478251963</v>
+        <v>0.9333460478251961</v>
       </c>
       <c r="C28" t="n">
-        <v>0.03304393030931702</v>
+        <v>0.03304393030931707</v>
       </c>
       <c r="D28" t="n">
         <v>0.9357442831788509</v>
@@ -1297,10 +1297,10 @@
         <v>0.28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9228712015620504</v>
+        <v>0.9228712015620503</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03818423674872057</v>
+        <v>0.03818423674872051</v>
       </c>
       <c r="D30" t="n">
         <v>0.9254184883672316</v>
@@ -1326,10 +1326,10 @@
         <v>0.29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9173619868014524</v>
+        <v>0.9173619868014525</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04088188871124471</v>
+        <v>0.04088188871124465</v>
       </c>
       <c r="D31" t="n">
         <v>0.9199809172933771</v>
@@ -1445,7 +1445,7 @@
         <v>0.893545699371959</v>
       </c>
       <c r="C35" t="n">
-        <v>0.05249664415642796</v>
+        <v>0.05249664415642791</v>
       </c>
       <c r="D35" t="n">
         <v>0.8964305508602447</v>
@@ -1500,10 +1500,10 @@
         <v>0.35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8805907860900067</v>
+        <v>0.8805907860900066</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05878192675737215</v>
+        <v>0.05878192675737209</v>
       </c>
       <c r="D37" t="n">
         <v>0.8835953720331996</v>
@@ -1529,10 +1529,10 @@
         <v>0.36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8738571593200201</v>
+        <v>0.8738571593200199</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06203966435791475</v>
+        <v>0.0620396643579148</v>
       </c>
       <c r="D38" t="n">
         <v>0.8769181046697426</v>
@@ -1561,7 +1561,7 @@
         <v>0.866954968518846</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0653723770871884</v>
+        <v>0.06537237708718835</v>
       </c>
       <c r="D39" t="n">
         <v>0.8700698608925949</v>
@@ -1619,7 +1619,7 @@
         <v>0.8526517902321695</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07225726962514356</v>
+        <v>0.07225726962514351</v>
       </c>
       <c r="D41" t="n">
         <v>0.8558671247511834</v>
@@ -1648,7 +1648,7 @@
         <v>0.8452543517890329</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07580664221385225</v>
+        <v>0.07580664221385214</v>
       </c>
       <c r="D42" t="n">
         <v>0.8485160769570995</v>
@@ -1735,7 +1735,7 @@
         <v>0.8221007679875758</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08686498168730922</v>
+        <v>0.08686498168730927</v>
       </c>
       <c r="D45" t="n">
         <v>0.8254857418453451</v>
@@ -1822,7 +1822,7 @@
         <v>0.7975458352717051</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09850666225382004</v>
+        <v>0.09850666225381999</v>
       </c>
       <c r="D48" t="n">
         <v>0.8010291793995703</v>
@@ -1848,7 +1848,7 @@
         <v>0.47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7890588099207297</v>
+        <v>0.7890588099207296</v>
       </c>
       <c r="C49" t="n">
         <v>0.1025094782745992</v>
@@ -1935,10 +1935,10 @@
         <v>0.5</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7627209533714149</v>
+        <v>0.7627209533714148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1148616085189579</v>
+        <v>0.1148616085189578</v>
       </c>
       <c r="D52" t="n">
         <v>0.7662947189144942</v>
@@ -1993,7 +1993,7 @@
         <v>0.52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7444534926424009</v>
+        <v>0.7444534926424008</v>
       </c>
       <c r="C54" t="n">
         <v>0.123365687035249</v>
@@ -2022,10 +2022,10 @@
         <v>0.53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7351138009407874</v>
+        <v>0.7351138009407873</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1276932695739737</v>
+        <v>0.1276932695739736</v>
       </c>
       <c r="D55" t="n">
         <v>0.7387234555113228</v>
@@ -2109,7 +2109,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7062985812173299</v>
+        <v>0.7062985812173298</v>
       </c>
       <c r="C58" t="n">
         <v>0.1409565297960862</v>
@@ -2199,7 +2199,7 @@
         <v>0.6763390852256939</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1546015938744697</v>
+        <v>0.1546015938744698</v>
       </c>
       <c r="D61" t="n">
         <v>0.6799345107533027</v>
@@ -2257,7 +2257,7 @@
         <v>0.655762973258416</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1638850445870634</v>
+        <v>0.1638850445870635</v>
       </c>
       <c r="D63" t="n">
         <v>0.6593273592030839</v>
@@ -2283,10 +2283,10 @@
         <v>0.62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6453015068220457</v>
+        <v>0.6453015068220458</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1685769498404882</v>
+        <v>0.1685769498404883</v>
       </c>
       <c r="D64" t="n">
         <v>0.6488453388502188</v>
@@ -2518,7 +2518,7 @@
         <v>0.5577908949198502</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2070512923646382</v>
+        <v>0.2070512923646381</v>
       </c>
       <c r="D72" t="n">
         <v>0.5610473515313879</v>
@@ -2544,7 +2544,7 @@
         <v>0.71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5464147456413575</v>
+        <v>0.5464147456413574</v>
       </c>
       <c r="C73" t="n">
         <v>0.2119471303491507</v>
@@ -2605,7 +2605,7 @@
         <v>0.523400970678735</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2217734316661354</v>
+        <v>0.2217734316661355</v>
       </c>
       <c r="D75" t="n">
         <v>0.5264926350428339</v>
@@ -2663,7 +2663,7 @@
         <v>0.5000572073769274</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2316316614968935</v>
+        <v>0.2316316614968934</v>
       </c>
       <c r="D77" t="n">
         <v>0.5030216357984858</v>
@@ -2718,7 +2718,7 @@
         <v>0.77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4764060719565665</v>
+        <v>0.4764060719565664</v>
       </c>
       <c r="C79" t="n">
         <v>0.2415045976543768</v>
@@ -3617,7 +3617,7 @@
         <v>1.08</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08799075629832917</v>
+        <v>0.08799075629832914</v>
       </c>
       <c r="C110" t="n">
         <v>0.3833376078754108</v>
@@ -3646,7 +3646,7 @@
         <v>1.09</v>
       </c>
       <c r="B111" t="n">
-        <v>0.07531790085461479</v>
+        <v>0.07531790085461476</v>
       </c>
       <c r="C111" t="n">
         <v>0.387167466020686</v>
@@ -3704,7 +3704,7 @@
         <v>1.11</v>
       </c>
       <c r="B113" t="n">
-        <v>0.05004605230750517</v>
+        <v>0.05004605230750514</v>
       </c>
       <c r="C113" t="n">
         <v>0.3946154644342016</v>
@@ -3823,7 +3823,7 @@
         <v>-0.0001212877553790348</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4086087286395362</v>
+        <v>0.4086087286395361</v>
       </c>
       <c r="D117" t="n">
         <v>-0.002388845217078927</v>
@@ -3965,7 +3965,7 @@
         <v>1.2</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.06188999620443536</v>
+        <v>-0.06188999620443539</v>
       </c>
       <c r="C122" t="n">
         <v>0.424247750681109</v>
@@ -4458,7 +4458,7 @@
         <v>1.37</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.259688551513244</v>
+        <v>-0.2596885515132439</v>
       </c>
       <c r="C139" t="n">
         <v>0.4591382725108168</v>
@@ -4516,7 +4516,7 @@
         <v>1.39</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.2813299184504958</v>
+        <v>-0.2813299184504957</v>
       </c>
       <c r="C141" t="n">
         <v>0.4611428961234951</v>
@@ -4661,7 +4661,7 @@
         <v>1.44</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.3336035319497259</v>
+        <v>-0.333603531949726</v>
       </c>
       <c r="C146" t="n">
         <v>0.4640272406878715</v>
@@ -4722,7 +4722,7 @@
         <v>-0.353735937799168</v>
       </c>
       <c r="C148" t="n">
-        <v>0.4643057176192375</v>
+        <v>0.4643057176192376</v>
       </c>
       <c r="D148" t="n">
         <v>-0.3622871973328277</v>
@@ -4838,7 +4838,7 @@
         <v>-0.3925791254851543</v>
       </c>
       <c r="C152" t="n">
-        <v>0.4633163271528573</v>
+        <v>0.4633163271528572</v>
       </c>
       <c r="D152" t="n">
         <v>-0.4019555313477018</v>
@@ -4983,7 +4983,7 @@
         <v>-0.4383117339881643</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4591065617912567</v>
+        <v>0.4591065617912566</v>
       </c>
       <c r="D157" t="n">
         <v>-0.4486973074444551</v>
@@ -5096,7 +5096,7 @@
         <v>1.59</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.4725046471074728</v>
+        <v>-0.4725046471074727</v>
       </c>
       <c r="C161" t="n">
         <v>0.4533021542057801</v>
@@ -5125,10 +5125,10 @@
         <v>1.6</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.480707114800257</v>
+        <v>-0.4807071148002569</v>
       </c>
       <c r="C162" t="n">
-        <v>0.4515075924989681</v>
+        <v>0.451507592498968</v>
       </c>
       <c r="D162" t="n">
         <v>-0.4920663109321929</v>
@@ -5418,7 +5418,7 @@
         <v>-0.5547409306306867</v>
       </c>
       <c r="C172" t="n">
-        <v>0.4258964363351622</v>
+        <v>0.4258964363351621</v>
       </c>
       <c r="D172" t="n">
         <v>-0.5678948797419653</v>
@@ -5473,7 +5473,7 @@
         <v>1.72</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5677411112822953</v>
+        <v>-0.5677411112822952</v>
       </c>
       <c r="C174" t="n">
         <v>0.4190904110109316</v>
@@ -5531,7 +5531,7 @@
         <v>1.74</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.5801195230789881</v>
+        <v>-0.580119523078988</v>
       </c>
       <c r="C176" t="n">
         <v>0.411722075129911</v>
@@ -5708,7 +5708,7 @@
         <v>-0.6134582373053459</v>
       </c>
       <c r="C182" t="n">
-        <v>0.3862561426122588</v>
+        <v>0.3862561426122587</v>
       </c>
       <c r="D182" t="n">
         <v>-0.6281297937524729</v>
@@ -5734,7 +5734,7 @@
         <v>1.81</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.6184536980049693</v>
+        <v>-0.6184536980049692</v>
       </c>
       <c r="C183" t="n">
         <v>0.3815246493202946</v>
@@ -5821,10 +5821,10 @@
         <v>1.84</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.6324671711710786</v>
+        <v>-0.6324671711710785</v>
       </c>
       <c r="C186" t="n">
-        <v>0.3665032955620983</v>
+        <v>0.3665032955620982</v>
       </c>
       <c r="D186" t="n">
         <v>-0.6476494317518647</v>
@@ -5882,7 +5882,7 @@
         <v>-0.6409945096472339</v>
       </c>
       <c r="C188" t="n">
-        <v>0.3558054504022131</v>
+        <v>0.355805450402213</v>
       </c>
       <c r="D188" t="n">
         <v>-0.6564089918169782</v>
@@ -5937,10 +5937,10 @@
         <v>1.88</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.648866792042351</v>
+        <v>-0.6488667920423509</v>
       </c>
       <c r="C190" t="n">
-        <v>0.3445666209825175</v>
+        <v>0.3445666209825174</v>
       </c>
       <c r="D190" t="n">
         <v>-0.6644973004379796</v>
@@ -5966,7 +5966,7 @@
         <v>1.89</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.6525566950672677</v>
+        <v>-0.6525566950672675</v>
       </c>
       <c r="C191" t="n">
         <v>0.3387461357083851</v>
@@ -6082,7 +6082,7 @@
         <v>1.93</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.6656716190077621</v>
+        <v>-0.6656716190077619</v>
       </c>
       <c r="C195" t="n">
         <v>0.3141427770668022</v>
@@ -6256,7 +6256,7 @@
         <v>1.99</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.6804117754989801</v>
+        <v>-0.68041177549898</v>
       </c>
       <c r="C201" t="n">
         <v>0.2733785688397146</v>
@@ -6488,10 +6488,10 @@
         <v>2.07</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.6909367477566138</v>
+        <v>-0.6909367477566137</v>
       </c>
       <c r="C209" t="n">
-        <v>0.212210203597894</v>
+        <v>0.2122102035978941</v>
       </c>
       <c r="D209" t="n">
         <v>-0.7077147810473244</v>
@@ -6633,7 +6633,7 @@
         <v>2.12</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.6923178487000021</v>
+        <v>-0.692317848700002</v>
       </c>
       <c r="C214" t="n">
         <v>0.1703096735452947</v>
@@ -6897,7 +6897,7 @@
         <v>-0.6850953464214755</v>
       </c>
       <c r="C223" t="n">
-        <v>0.08853882468731572</v>
+        <v>0.08853882468731566</v>
       </c>
       <c r="D223" t="n">
         <v>-0.7015407579695294</v>
@@ -6923,10 +6923,10 @@
         <v>2.22</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6835480557556277</v>
+        <v>-0.6835480557556276</v>
       </c>
       <c r="C224" t="n">
-        <v>0.07899578469769802</v>
+        <v>0.07899578469769797</v>
       </c>
       <c r="D224" t="n">
         <v>-0.699928725090564</v>
@@ -7039,10 +7039,10 @@
         <v>2.26</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.675926026752477</v>
+        <v>-0.6759260267524769</v>
       </c>
       <c r="C228" t="n">
-        <v>0.0400032101584743</v>
+        <v>0.04000321015847424</v>
       </c>
       <c r="D228" t="n">
         <v>-0.6919922422398844</v>
@@ -7358,10 +7358,10 @@
         <v>2.37</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.6437794776591587</v>
+        <v>-0.6437794776591588</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.0730215796273842</v>
+        <v>-0.07302157962738426</v>
       </c>
       <c r="D239" t="n">
         <v>-0.658524409504472</v>
@@ -7651,7 +7651,7 @@
         <v>-0.6017688667300394</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.1810627899080259</v>
+        <v>-0.181062789908026</v>
       </c>
       <c r="D249" t="n">
         <v>-0.6147465144653276</v>
@@ -7677,10 +7677,10 @@
         <v>2.48</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.5969726961978347</v>
+        <v>-0.5969726961978346</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.1920420510316965</v>
+        <v>-0.1920420510316964</v>
       </c>
       <c r="D250" t="n">
         <v>-0.6097452295222373</v>
@@ -7706,10 +7706,10 @@
         <v>2.49</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.5920763371787225</v>
+        <v>-0.5920763371787227</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.2030425998250617</v>
+        <v>-0.2030425998250618</v>
       </c>
       <c r="D251" t="n">
         <v>-0.6046387713465816</v>
@@ -7938,10 +7938,10 @@
         <v>2.57</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.549552527786749</v>
+        <v>-0.5495525277867489</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.2914879330594525</v>
+        <v>-0.2914879330594524</v>
       </c>
       <c r="D259" t="n">
         <v>-0.5602613029208909</v>
@@ -7967,7 +7967,7 @@
         <v>2.58</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.5438504709387665</v>
+        <v>-0.5438504709387664</v>
       </c>
       <c r="C260" t="n">
         <v>-0.3025575702770091</v>
@@ -8054,10 +8054,10 @@
         <v>2.61</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.5262822858911528</v>
+        <v>-0.5262822858911527</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.3357185511989108</v>
+        <v>-0.3357185511989107</v>
       </c>
       <c r="D263" t="n">
         <v>-0.5359554592786139</v>
@@ -8083,10 +8083,10 @@
         <v>2.62</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.5202798078461309</v>
+        <v>-0.5202798078461308</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.3467469135996715</v>
+        <v>-0.3467469135996714</v>
       </c>
       <c r="D264" t="n">
         <v>-0.529683502361889</v>
@@ -8112,7 +8112,7 @@
         <v>2.63</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.5142079495429016</v>
+        <v>-0.5142079495429015</v>
       </c>
       <c r="C265" t="n">
         <v>-0.3577579543090149</v>
@@ -8144,7 +8144,7 @@
         <v>-0.5080690263951942</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.3687488639990872</v>
+        <v>-0.3687488639990874</v>
       </c>
       <c r="D266" t="n">
         <v>-0.5169216073686046</v>
@@ -8257,10 +8257,10 @@
         <v>2.68</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.4828893769286452</v>
+        <v>-0.4828893769286451</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.4124549289108469</v>
+        <v>-0.4124549289108468</v>
       </c>
       <c r="D270" t="n">
         <v>-0.4905934086078702</v>
@@ -8286,10 +8286,10 @@
         <v>2.69</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.4764502335762513</v>
+        <v>-0.4764502335762512</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.4233029776376901</v>
+        <v>-0.42330297763769</v>
       </c>
       <c r="D271" t="n">
         <v>-0.483857978566934</v>
@@ -8344,7 +8344,7 @@
         <v>2.71</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.4634154488079484</v>
+        <v>-0.4634154488079483</v>
       </c>
       <c r="C273" t="n">
         <v>-0.4448852175514217</v>
@@ -8460,10 +8460,10 @@
         <v>2.75</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.4367867106584763</v>
+        <v>-0.4367867106584762</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.4875156679739873</v>
+        <v>-0.4875156679739872</v>
       </c>
       <c r="D277" t="n">
         <v>-0.4423469432260383</v>
@@ -8489,7 +8489,7 @@
         <v>2.76</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.4300270098790391</v>
+        <v>-0.430027009879039</v>
       </c>
       <c r="C278" t="n">
         <v>-0.4980457003302936</v>
@@ -8547,7 +8547,7 @@
         <v>2.78</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.4164014126789455</v>
+        <v>-0.4164014126789454</v>
       </c>
       <c r="C280" t="n">
         <v>-0.5189331734417933</v>
@@ -8576,7 +8576,7 @@
         <v>2.79</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.4095403299986433</v>
+        <v>-0.4095403299986432</v>
       </c>
       <c r="C281" t="n">
         <v>-0.5292850742750929</v>
@@ -8840,7 +8840,7 @@
         <v>-0.3467748067405367</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.619204505657438</v>
+        <v>-0.6192045056574379</v>
       </c>
       <c r="D290" t="n">
         <v>-0.3480052589541737</v>
@@ -8869,7 +8869,7 @@
         <v>-0.339731895092753</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.6287852691356935</v>
+        <v>-0.6287852691356934</v>
       </c>
       <c r="D291" t="n">
         <v>-0.3406158627326439</v>
@@ -8895,7 +8895,7 @@
         <v>2.9</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.3326839149124734</v>
+        <v>-0.3326839149124733</v>
       </c>
       <c r="C292" t="n">
         <v>-0.6382742502371171</v>
@@ -8924,7 +8924,7 @@
         <v>2.91</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.3256332246328463</v>
+        <v>-0.3256332246328464</v>
       </c>
       <c r="C293" t="n">
         <v>-0.6476688464305024</v>
@@ -9098,7 +9098,7 @@
         <v>2.97</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.2834030307768067</v>
+        <v>-0.2834030307768066</v>
       </c>
       <c r="C299" t="n">
         <v>-0.7019110373810771</v>
@@ -9185,10 +9185,10 @@
         <v>3</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.262439222453796</v>
+        <v>-0.2624392224537961</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.7275532741466494</v>
+        <v>-0.7275532741466493</v>
       </c>
       <c r="D302" t="n">
         <v>-0.2594506996306913</v>
@@ -9217,7 +9217,7 @@
         <v>-0.2554888306070549</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.735865343341771</v>
+        <v>-0.7358653433417709</v>
       </c>
       <c r="D303" t="n">
         <v>-0.2521459626668524</v>
@@ -9243,7 +9243,7 @@
         <v>3.02</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.2485609261401958</v>
+        <v>-0.2485609261401959</v>
       </c>
       <c r="C304" t="n">
         <v>-0.7440557905657412</v>
@@ -9362,7 +9362,7 @@
         <v>-0.2211180094629218</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.7755551562531248</v>
+        <v>-0.7755551562531247</v>
       </c>
       <c r="D308" t="n">
         <v>-0.2160085970474745</v>
@@ -9420,7 +9420,7 @@
         <v>-0.2075879396695123</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.7905158324256334</v>
+        <v>-0.7905158324256333</v>
       </c>
       <c r="D310" t="n">
         <v>-0.2017767761095538</v>
@@ -9504,7 +9504,7 @@
         <v>3.11</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.1875794465535415</v>
+        <v>-0.1875794465535414</v>
       </c>
       <c r="C313" t="n">
         <v>-0.8119215470727863</v>
@@ -9591,10 +9591,10 @@
         <v>3.14</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.1679638839314401</v>
+        <v>-0.16796388393144</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.8320348477960995</v>
+        <v>-0.8320348477960994</v>
       </c>
       <c r="D316" t="n">
         <v>-0.1600779070005072</v>
@@ -9649,10 +9649,10 @@
         <v>3.16</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.1551315876080809</v>
+        <v>-0.1551315876080808</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.8446990019745174</v>
+        <v>-0.8446990019745173</v>
       </c>
       <c r="D318" t="n">
         <v>-0.1465676947110207</v>
@@ -9678,10 +9678,10 @@
         <v>3.17</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.1487946497368212</v>
+        <v>-0.1487946497368211</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.8508018887312647</v>
+        <v>-0.8508018887312646</v>
       </c>
       <c r="D319" t="n">
         <v>-0.1398949630427479</v>
@@ -9765,7 +9765,7 @@
         <v>3.2</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.1301231273923966</v>
+        <v>-0.1301231273923967</v>
       </c>
       <c r="C322" t="n">
         <v>-0.8681716484023565</v>
@@ -9794,7 +9794,7 @@
         <v>3.21</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.124018462810731</v>
+        <v>-0.1240184628107311</v>
       </c>
       <c r="C323" t="n">
         <v>-0.8736426669558865</v>
@@ -9826,7 +9826,7 @@
         <v>-0.1179763564078264</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.8789513620490604</v>
+        <v>-0.8789513620490603</v>
       </c>
       <c r="D324" t="n">
         <v>-0.1074346312804915</v>
@@ -9884,7 +9884,7 @@
         <v>-0.1060867458723718</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.8890751574514586</v>
+        <v>-0.8890751574514585</v>
       </c>
       <c r="D326" t="n">
         <v>-0.09490789244780504</v>
@@ -9997,7 +9997,7 @@
         <v>3.28</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.08313276161380145</v>
+        <v>-0.08313276161380151</v>
       </c>
       <c r="C330" t="n">
         <v>-0.9073042224836716</v>
@@ -10058,7 +10058,7 @@
         <v>-0.07209404020172211</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.9153857297071428</v>
+        <v>-0.9153857297071426</v>
       </c>
       <c r="D332" t="n">
         <v>-0.05908478863273042</v>
@@ -10174,7 +10174,7 @@
         <v>-0.05095343687728604</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.9294283092616128</v>
+        <v>-0.9294283092616127</v>
       </c>
       <c r="D336" t="n">
         <v>-0.03680155696739743</v>
@@ -10203,7 +10203,7 @@
         <v>-0.04587172373243392</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.9324899548495003</v>
+        <v>-0.9324899548495</v>
       </c>
       <c r="D337" t="n">
         <v>-0.03144502887704399</v>
@@ -10258,7 +10258,7 @@
         <v>3.37</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.03596180011524774</v>
+        <v>-0.03596180011524769</v>
       </c>
       <c r="C339" t="n">
         <v>-0.9380664490836044</v>
@@ -10316,7 +10316,7 @@
         <v>3.39</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.02639828600692401</v>
+        <v>-0.02639828600692395</v>
       </c>
       <c r="C341" t="n">
         <v>-0.9429069354960369</v>
@@ -10403,7 +10403,7 @@
         <v>3.42</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.01272334336841907</v>
+        <v>-0.01272334336841913</v>
       </c>
       <c r="C344" t="n">
         <v>-0.9487710146918797</v>
@@ -10432,10 +10432,10 @@
         <v>3.43</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.008348248542488612</v>
+        <v>-0.008348248542488668</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.9503498343011799</v>
+        <v>-0.9503498343011798</v>
       </c>
       <c r="D345" t="n">
         <v>0.008102264428931909</v>
@@ -10461,10 +10461,10 @@
         <v>3.44</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.004066515917265701</v>
+        <v>-0.004066515917265645</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.9517394227004007</v>
+        <v>-0.9517394227004006</v>
       </c>
       <c r="D346" t="n">
         <v>0.01261341638438997</v>
@@ -10490,10 +10490,10 @@
         <v>3.45</v>
       </c>
       <c r="B347" t="n">
-        <v>0.0001208592243576723</v>
+        <v>0.0001208592243577278</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.9529390738186624</v>
+        <v>-0.9529390738186623</v>
       </c>
       <c r="D347" t="n">
         <v>0.01702460628162259</v>
@@ -10548,7 +10548,7 @@
         <v>3.47</v>
       </c>
       <c r="B349" t="n">
-        <v>0.008208745503568926</v>
+        <v>0.008208745503568871</v>
       </c>
       <c r="C349" t="n">
         <v>-0.9547659772667454</v>
@@ -10577,7 +10577,7 @@
         <v>3.48</v>
       </c>
       <c r="B350" t="n">
-        <v>0.01210745641334515</v>
+        <v>0.01210745641334521</v>
       </c>
       <c r="C350" t="n">
         <v>-0.9553920554618209</v>
@@ -10722,10 +10722,10 @@
         <v>3.53</v>
       </c>
       <c r="B355" t="n">
-        <v>0.03011616533205913</v>
+        <v>0.03011616533205907</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.9556295603408436</v>
+        <v>-0.9556295603408435</v>
       </c>
       <c r="D355" t="n">
         <v>0.04859621417301403</v>
@@ -10780,10 +10780,10 @@
         <v>3.55</v>
       </c>
       <c r="B357" t="n">
-        <v>0.03661336953258504</v>
+        <v>0.03661336953258498</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.9543678754988609</v>
+        <v>-0.9543678754988608</v>
       </c>
       <c r="D357" t="n">
         <v>0.05542437759953638</v>
@@ -10809,7 +10809,7 @@
         <v>3.56</v>
       </c>
       <c r="B358" t="n">
-        <v>0.03970812078553454</v>
+        <v>0.0397081207855346</v>
       </c>
       <c r="C358" t="n">
         <v>-0.9534453239270793</v>
@@ -10838,7 +10838,7 @@
         <v>3.57</v>
       </c>
       <c r="B359" t="n">
-        <v>0.04269958922549999</v>
+        <v>0.04269958922549993</v>
       </c>
       <c r="C359" t="n">
         <v>-0.9523281165834443</v>
@@ -10867,7 +10867,7 @@
         <v>3.58</v>
       </c>
       <c r="B360" t="n">
-        <v>0.0455872882882678</v>
+        <v>0.04558728828826786</v>
       </c>
       <c r="C360" t="n">
         <v>-0.9510161777678974</v>
@@ -10899,7 +10899,7 @@
         <v>0.04837077163556602</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.9495094811024546</v>
+        <v>-0.9495094811024545</v>
       </c>
       <c r="D361" t="n">
         <v>0.06776284007362535</v>
@@ -10928,7 +10928,7 @@
         <v>0.05104963324696732</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.9478080495811143</v>
+        <v>-0.9478080495811142</v>
       </c>
       <c r="D362" t="n">
         <v>0.07056963247985935</v>
@@ -10954,7 +10954,7 @@
         <v>3.61</v>
       </c>
       <c r="B363" t="n">
-        <v>0.05362350749879174</v>
+        <v>0.05362350749879169</v>
       </c>
       <c r="C363" t="n">
         <v>-0.9459119556058602</v>
@@ -11041,7 +11041,7 @@
         <v>3.64</v>
       </c>
       <c r="B366" t="n">
-        <v>0.06071215710351446</v>
+        <v>0.06071215710351441</v>
       </c>
       <c r="C366" t="n">
         <v>-0.9390571644623884</v>
@@ -11099,7 +11099,7 @@
         <v>3.66</v>
       </c>
       <c r="B368" t="n">
-        <v>0.06490810651377488</v>
+        <v>0.06490810651377482</v>
       </c>
       <c r="C368" t="n">
         <v>-0.9335175431609397</v>
@@ -11157,10 +11157,10 @@
         <v>3.68</v>
       </c>
       <c r="B370" t="n">
-        <v>0.06867877653405036</v>
+        <v>0.0686787765340503</v>
       </c>
       <c r="C370" t="n">
-        <v>-0.9272052102761521</v>
+        <v>-0.927205210276152</v>
       </c>
       <c r="D370" t="n">
         <v>0.08896082607613347</v>
@@ -11331,7 +11331,7 @@
         <v>3.74</v>
       </c>
       <c r="B376" t="n">
-        <v>0.07743743259553859</v>
+        <v>0.07743743259553865</v>
       </c>
       <c r="C376" t="n">
         <v>-0.9036712802368108</v>
@@ -11389,10 +11389,10 @@
         <v>3.76</v>
       </c>
       <c r="B378" t="n">
-        <v>0.07950854022128279</v>
+        <v>0.07950854022128273</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.894311352007195</v>
+        <v>-0.8943113520071951</v>
       </c>
       <c r="D378" t="n">
         <v>0.1000650636749486</v>
@@ -11418,7 +11418,7 @@
         <v>3.77</v>
       </c>
       <c r="B379" t="n">
-        <v>0.08038595932864645</v>
+        <v>0.08038595932864634</v>
       </c>
       <c r="C379" t="n">
         <v>-0.889350745958732</v>
@@ -11476,10 +11476,10 @@
         <v>3.79</v>
       </c>
       <c r="B381" t="n">
-        <v>0.08182613079733253</v>
+        <v>0.08182613079733259</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.8788727715893443</v>
+        <v>-0.8788727715893442</v>
       </c>
       <c r="D381" t="n">
         <v>0.1023546105000566</v>
@@ -11505,7 +11505,7 @@
         <v>3.8</v>
       </c>
       <c r="B382" t="n">
-        <v>0.08238964289287282</v>
+        <v>0.08238964289287287</v>
       </c>
       <c r="C382" t="n">
         <v>-0.8733573548072893</v>
@@ -11534,7 +11534,7 @@
         <v>3.81</v>
       </c>
       <c r="B383" t="n">
-        <v>0.08284934457880017</v>
+        <v>0.08284934457880011</v>
       </c>
       <c r="C383" t="n">
         <v>-0.8676590315035679</v>
@@ -11563,10 +11563,10 @@
         <v>3.82</v>
       </c>
       <c r="B384" t="n">
-        <v>0.08320571373002944</v>
+        <v>0.0832057137300295</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.8617788953504617</v>
+        <v>-0.8617788953504616</v>
       </c>
       <c r="D384" t="n">
         <v>0.1036332090214101</v>
@@ -11592,10 +11592,10 @@
         <v>3.83</v>
       </c>
       <c r="B385" t="n">
-        <v>0.08345926706822987</v>
+        <v>0.08345926706822993</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.8557180867149736</v>
+        <v>-0.8557180867149735</v>
       </c>
       <c r="D385" t="n">
         <v>0.1038367737232622</v>
@@ -11621,10 +11621,10 @@
         <v>3.84</v>
       </c>
       <c r="B386" t="n">
-        <v>0.08361055994445177</v>
+        <v>0.08361055994445182</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.8494777923790892</v>
+        <v>-0.849477792379089</v>
       </c>
       <c r="D386" t="n">
         <v>0.1039298817090329</v>
@@ -11766,7 +11766,7 @@
         <v>3.89</v>
       </c>
       <c r="B391" t="n">
-        <v>0.08285522876209644</v>
+        <v>0.0828552287620965</v>
       </c>
       <c r="C391" t="n">
         <v>-0.8156287836142169</v>
@@ -11795,7 +11795,7 @@
         <v>3.9</v>
       </c>
       <c r="B392" t="n">
-        <v>0.08240675399427672</v>
+        <v>0.0824067539942766</v>
       </c>
       <c r="C392" t="n">
         <v>-0.808339058194417</v>
@@ -11824,7 +11824,7 @@
         <v>3.91</v>
       </c>
       <c r="B393" t="n">
-        <v>0.08186096700763146</v>
+        <v>0.0818609670076314</v>
       </c>
       <c r="C393" t="n">
         <v>-0.8008794279303126</v>
@@ -11911,7 +11911,7 @@
         <v>3.94</v>
       </c>
       <c r="B396" t="n">
-        <v>0.07964846396186903</v>
+        <v>0.07964846396186898</v>
       </c>
       <c r="C396" t="n">
         <v>-0.7774967889654327</v>
@@ -12114,10 +12114,10 @@
         <v>4.01</v>
       </c>
       <c r="B403" t="n">
-        <v>0.07125665058498482</v>
+        <v>0.07125665058498476</v>
       </c>
       <c r="C403" t="n">
-        <v>-0.7172996907199436</v>
+        <v>-0.7172996907199435</v>
       </c>
       <c r="D403" t="n">
         <v>0.0893294794493287</v>
@@ -12230,10 +12230,10 @@
         <v>4.05</v>
       </c>
       <c r="B407" t="n">
-        <v>0.06454520501466776</v>
+        <v>0.06454520501466782</v>
       </c>
       <c r="C407" t="n">
-        <v>-0.6795475815402422</v>
+        <v>-0.6795475815402423</v>
       </c>
       <c r="D407" t="n">
         <v>0.08174855642211218</v>
@@ -12317,10 +12317,10 @@
         <v>4.08</v>
       </c>
       <c r="B410" t="n">
-        <v>0.058658203827259</v>
+        <v>0.05865820382725895</v>
       </c>
       <c r="C410" t="n">
-        <v>-0.6497316406102904</v>
+        <v>-0.6497316406102903</v>
       </c>
       <c r="D410" t="n">
         <v>0.07512698404270134</v>
@@ -12752,10 +12752,10 @@
         <v>4.23</v>
       </c>
       <c r="B425" t="n">
-        <v>0.019698636244529</v>
+        <v>0.01969863624452903</v>
       </c>
       <c r="C425" t="n">
-        <v>-0.4835955055035091</v>
+        <v>-0.483595505503509</v>
       </c>
       <c r="D425" t="n">
         <v>0.03149619246207272</v>
@@ -12810,7 +12810,7 @@
         <v>4.25</v>
       </c>
       <c r="B427" t="n">
-        <v>0.01348843239749206</v>
+        <v>0.01348843239749209</v>
       </c>
       <c r="C427" t="n">
         <v>-0.4595759223112849</v>
@@ -12897,7 +12897,7 @@
         <v>4.28</v>
       </c>
       <c r="B430" t="n">
-        <v>0.003812898070057386</v>
+        <v>0.003812898070057358</v>
       </c>
       <c r="C430" t="n">
         <v>-0.422854010192413</v>
@@ -12984,7 +12984,7 @@
         <v>4.31</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.006249952636879913</v>
+        <v>-0.006249952636879941</v>
       </c>
       <c r="C433" t="n">
         <v>-0.3853676729775548</v>
@@ -13016,7 +13016,7 @@
         <v>-0.009681383774058194</v>
       </c>
       <c r="C434" t="n">
-        <v>-0.3727155339386221</v>
+        <v>-0.372715533938622</v>
       </c>
       <c r="D434" t="n">
         <v>-0.001402258399055616</v>
@@ -13042,10 +13042,10 @@
         <v>4.33</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.01314814898584224</v>
+        <v>-0.01314814898584227</v>
       </c>
       <c r="C435" t="n">
-        <v>-0.3599898214519753</v>
+        <v>-0.3599898214519754</v>
       </c>
       <c r="D435" t="n">
         <v>-0.005288708572301735</v>
@@ -13100,7 +13100,7 @@
         <v>4.350000000000001</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.02017980442208242</v>
+        <v>-0.02017980442208239</v>
       </c>
       <c r="C437" t="n">
         <v>-0.3343292606260487</v>
@@ -13593,10 +13593,10 @@
         <v>4.52</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.08304749907125332</v>
+        <v>-0.08304749907125333</v>
       </c>
       <c r="C454" t="n">
-        <v>-0.1081568435990474</v>
+        <v>-0.1081568435990475</v>
       </c>
       <c r="D454" t="n">
         <v>-0.08400894806229213</v>
@@ -13799,7 +13799,7 @@
         <v>-0.1090336209125206</v>
       </c>
       <c r="C461" t="n">
-        <v>-0.01305004286491282</v>
+        <v>-0.01305004286491283</v>
       </c>
       <c r="D461" t="n">
         <v>-0.1135246440865358</v>
@@ -13944,7 +13944,7 @@
         <v>-0.1270223080723618</v>
       </c>
       <c r="C466" t="n">
-        <v>0.05469653281910734</v>
+        <v>0.05469653281910733</v>
       </c>
       <c r="D466" t="n">
         <v>-0.1340744733040127</v>
@@ -14263,7 +14263,7 @@
         <v>-0.1635252308940756</v>
       </c>
       <c r="C477" t="n">
-        <v>0.2011273837820522</v>
+        <v>0.2011273837820521</v>
       </c>
       <c r="D477" t="n">
         <v>-0.1762057214506413</v>
@@ -14492,7 +14492,7 @@
         <v>4.83</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.1862140244121849</v>
+        <v>-0.1862140244121848</v>
       </c>
       <c r="C485" t="n">
         <v>0.3035540919881403</v>
@@ -15014,10 +15014,10 @@
         <v>5.01</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.2201775902989673</v>
+        <v>-0.2201775902989674</v>
       </c>
       <c r="C503" t="n">
-        <v>0.5134146756978304</v>
+        <v>0.5134146756978305</v>
       </c>
       <c r="D503" t="n">
         <v>-0.2448449449269154</v>
@@ -15159,7 +15159,7 @@
         <v>5.06</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.2244854972671719</v>
+        <v>-0.2244854972671718</v>
       </c>
       <c r="C508" t="n">
         <v>0.565138185374962</v>
@@ -15191,7 +15191,7 @@
         <v>-0.2250475174765093</v>
       </c>
       <c r="C509" t="n">
-        <v>0.5750849084704005</v>
+        <v>0.5750849084704004</v>
       </c>
       <c r="D509" t="n">
         <v>-0.2519581196311709</v>
@@ -15275,10 +15275,10 @@
         <v>5.100000000000001</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.2261142307880845</v>
+        <v>-0.2261142307880846</v>
       </c>
       <c r="C512" t="n">
-        <v>0.6040919735010656</v>
+        <v>0.6040919735010657</v>
       </c>
       <c r="D512" t="n">
         <v>-0.2540445688239303</v>
@@ -15449,10 +15449,10 @@
         <v>5.16</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.2253711638555093</v>
+        <v>-0.2253711638555092</v>
       </c>
       <c r="C518" t="n">
-        <v>0.6581843083249613</v>
+        <v>0.6581843083249612</v>
       </c>
       <c r="D518" t="n">
         <v>-0.2551149557906625</v>
@@ -15536,7 +15536,7 @@
         <v>5.19</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.2235140523832374</v>
+        <v>-0.2235140523832373</v>
       </c>
       <c r="C521" t="n">
         <v>0.6831728987297692</v>
@@ -15594,7 +15594,7 @@
         <v>5.21</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.221712075934807</v>
+        <v>-0.2217120759348071</v>
       </c>
       <c r="C523" t="n">
         <v>0.6990397209123287</v>
@@ -15626,7 +15626,7 @@
         <v>-0.2206400198761747</v>
       </c>
       <c r="C524" t="n">
-        <v>0.7067309061641149</v>
+        <v>0.7067309061641148</v>
       </c>
       <c r="D524" t="n">
         <v>-0.2518682308002009</v>
@@ -15713,7 +15713,7 @@
         <v>-0.2167330427762799</v>
       </c>
       <c r="C527" t="n">
-        <v>0.7288185200181206</v>
+        <v>0.7288185200181205</v>
       </c>
       <c r="D527" t="n">
         <v>-0.248570421203596</v>
@@ -15771,7 +15771,7 @@
         <v>-0.2135480590292783</v>
       </c>
       <c r="C529" t="n">
-        <v>0.742708667234974</v>
+        <v>0.7427086672349739</v>
       </c>
       <c r="D529" t="n">
         <v>-0.2457398566369151</v>
@@ -15826,7 +15826,7 @@
         <v>5.29</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.2098952072135777</v>
+        <v>-0.2098952072135776</v>
       </c>
       <c r="C531" t="n">
         <v>0.755919289195226</v>
@@ -15916,7 +15916,7 @@
         <v>-0.20353368909486</v>
       </c>
       <c r="C534" t="n">
-        <v>0.7744413932793135</v>
+        <v>0.7744413932793136</v>
       </c>
       <c r="D534" t="n">
         <v>-0.2364235878727059</v>
@@ -16061,7 +16061,7 @@
         <v>-0.1905676901264204</v>
       </c>
       <c r="C539" t="n">
-        <v>0.8017955183521557</v>
+        <v>0.8017955183521556</v>
       </c>
       <c r="D539" t="n">
         <v>-0.2238763140360039</v>
@@ -16087,10 +16087,10 @@
         <v>5.38</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.1876195280964018</v>
+        <v>-0.1876195280964017</v>
       </c>
       <c r="C540" t="n">
-        <v>0.8067312102760005</v>
+        <v>0.8067312102760004</v>
       </c>
       <c r="D540" t="n">
         <v>-0.2209772911875673</v>
@@ -16116,10 +16116,10 @@
         <v>5.39</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.1845531725105519</v>
+        <v>-0.1845531725105518</v>
       </c>
       <c r="C541" t="n">
-        <v>0.8114867979917209</v>
+        <v>0.8114867979917207</v>
       </c>
       <c r="D541" t="n">
         <v>-0.2179483339214377</v>
@@ -16145,7 +16145,7 @@
         <v>5.4</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.1813687610842914</v>
+        <v>-0.1813687610842913</v>
       </c>
       <c r="C542" t="n">
         <v>0.816061637026926</v>
@@ -16232,7 +16232,7 @@
         <v>5.43</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.1711091943208622</v>
+        <v>-0.1711091943208621</v>
       </c>
       <c r="C545" t="n">
         <v>0.8286959372325311</v>
@@ -16496,7 +16496,7 @@
         <v>-0.1340545023140003</v>
       </c>
       <c r="C554" t="n">
-        <v>0.8566924131845925</v>
+        <v>0.8566924131845924</v>
       </c>
       <c r="D554" t="n">
         <v>-0.1668355099659306</v>
@@ -16580,10 +16580,10 @@
         <v>5.55</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.1196570506840225</v>
+        <v>-0.1196570506840226</v>
       </c>
       <c r="C557" t="n">
-        <v>0.8627034916504325</v>
+        <v>0.8627034916504324</v>
       </c>
       <c r="D557" t="n">
         <v>-0.15199889913936</v>
@@ -16725,7 +16725,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.09346947998789079</v>
+        <v>-0.09346947998789085</v>
       </c>
       <c r="C562" t="n">
         <v>0.869035358498141</v>
@@ -16754,7 +16754,7 @@
         <v>5.61</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.08791130019813409</v>
+        <v>-0.08791130019813403</v>
       </c>
       <c r="C563" t="n">
         <v>0.8697509619057529</v>
@@ -16783,7 +16783,7 @@
         <v>5.62</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.08224856631757921</v>
+        <v>-0.08224856631757915</v>
       </c>
       <c r="C564" t="n">
         <v>0.8702838279079268</v>
@@ -16841,7 +16841,7 @@
         <v>5.64</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.07061379215920949</v>
+        <v>-0.07061379215920938</v>
       </c>
       <c r="C566" t="n">
         <v>0.8708032332320151</v>
@@ -16870,10 +16870,10 @@
         <v>5.65</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.06464402684894699</v>
+        <v>-0.06464402684894704</v>
       </c>
       <c r="C567" t="n">
-        <v>0.8707908321136627</v>
+        <v>0.8707908321136626</v>
       </c>
       <c r="D567" t="n">
         <v>-0.09470149266235747</v>
@@ -16899,10 +16899,10 @@
         <v>5.66</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.05857425682205619</v>
+        <v>-0.05857425682205614</v>
       </c>
       <c r="C568" t="n">
-        <v>0.8705978122699417</v>
+        <v>0.8705978122699416</v>
       </c>
       <c r="D568" t="n">
         <v>-0.08833388123796865</v>
@@ -16928,10 +16928,10 @@
         <v>5.67</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.0524057153085925</v>
+        <v>-0.05240571530859256</v>
       </c>
       <c r="C569" t="n">
-        <v>0.870224819260787</v>
+        <v>0.8702248192607869</v>
       </c>
       <c r="D569" t="n">
         <v>-0.08185494642886088</v>
@@ -17015,10 +17015,10 @@
         <v>5.7</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.03332035845632192</v>
+        <v>-0.03332035845632197</v>
       </c>
       <c r="C572" t="n">
-        <v>0.8680331432954818</v>
+        <v>0.8680331432954816</v>
       </c>
       <c r="D572" t="n">
         <v>-0.0617634243875628</v>
@@ -17102,10 +17102,10 @@
         <v>5.73</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.01339404072063927</v>
+        <v>-0.01339404072063932</v>
       </c>
       <c r="C575" t="n">
-        <v>0.8642493212818319</v>
+        <v>0.8642493212818317</v>
       </c>
       <c r="D575" t="n">
         <v>-0.04071932751017841</v>
@@ -17131,10 +17131,10 @@
         <v>5.74</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.006571758043898313</v>
+        <v>-0.006571758043898368</v>
       </c>
       <c r="C576" t="n">
-        <v>0.8626384098811536</v>
+        <v>0.8626384098811535</v>
       </c>
       <c r="D576" t="n">
         <v>-0.03349988057091415</v>
@@ -17189,10 +17189,10 @@
         <v>5.76</v>
       </c>
       <c r="B578" t="n">
-        <v>0.007333972832817559</v>
+        <v>0.007333972832817615</v>
       </c>
       <c r="C578" t="n">
-        <v>0.8588980911289107</v>
+        <v>0.8588980911289106</v>
       </c>
       <c r="D578" t="n">
         <v>-0.01876332020114472</v>
@@ -17334,7 +17334,7 @@
         <v>5.81</v>
       </c>
       <c r="B583" t="n">
-        <v>0.04354656462427742</v>
+        <v>0.04354656462427736</v>
       </c>
       <c r="C583" t="n">
         <v>0.8465746210709881</v>
@@ -17421,7 +17421,7 @@
         <v>5.84</v>
       </c>
       <c r="B586" t="n">
-        <v>0.06619909828334325</v>
+        <v>0.06619909828334331</v>
       </c>
       <c r="C586" t="n">
         <v>0.8371912293112156</v>
@@ -17450,10 +17450,10 @@
         <v>5.850000000000001</v>
       </c>
       <c r="B587" t="n">
-        <v>0.07389335786791706</v>
+        <v>0.07389335786791701</v>
       </c>
       <c r="C587" t="n">
-        <v>0.8337399212304965</v>
+        <v>0.8337399212304963</v>
       </c>
       <c r="D587" t="n">
         <v>0.05212215528350803</v>
@@ -17479,10 +17479,10 @@
         <v>5.86</v>
       </c>
       <c r="B588" t="n">
-        <v>0.08165621030182274</v>
+        <v>0.08165621030182268</v>
       </c>
       <c r="C588" t="n">
-        <v>0.8301292577288939</v>
+        <v>0.8301292577288938</v>
       </c>
       <c r="D588" t="n">
         <v>0.06042323220547623</v>
@@ -17537,7 +17537,7 @@
         <v>5.88</v>
       </c>
       <c r="B590" t="n">
-        <v>0.09738001022705434</v>
+        <v>0.09738001022705428</v>
       </c>
       <c r="C590" t="n">
         <v>0.8224358962095848</v>
@@ -17595,7 +17595,7 @@
         <v>5.9</v>
       </c>
       <c r="B592" t="n">
-        <v>0.1133548431329995</v>
+        <v>0.1133548431329994</v>
       </c>
       <c r="C592" t="n">
         <v>0.8141235876110364</v>
@@ -17624,10 +17624,10 @@
         <v>5.91</v>
       </c>
       <c r="B593" t="n">
-        <v>0.1214313817013227</v>
+        <v>0.1214313817013226</v>
       </c>
       <c r="C593" t="n">
-        <v>0.8097393798434604</v>
+        <v>0.8097393798434603</v>
       </c>
       <c r="D593" t="n">
         <v>0.1030541538408093</v>
@@ -17885,7 +17885,7 @@
         <v>6</v>
       </c>
       <c r="B602" t="n">
-        <v>0.1964162244073252</v>
+        <v>0.1964162244073251</v>
       </c>
       <c r="C602" t="n">
         <v>0.7637540622430408</v>
@@ -18091,7 +18091,7 @@
         <v>0.2568933842215025</v>
       </c>
       <c r="C609" t="n">
-        <v>0.7204685611743165</v>
+        <v>0.7204685611743163</v>
       </c>
       <c r="D609" t="n">
         <v>0.2493280350266269</v>
@@ -18146,7 +18146,7 @@
         <v>6.09</v>
       </c>
       <c r="B611" t="n">
-        <v>0.2743942090022713</v>
+        <v>0.2743942090022714</v>
       </c>
       <c r="C611" t="n">
         <v>0.7070034717456295</v>
@@ -18178,7 +18178,7 @@
         <v>0.2831695672869875</v>
       </c>
       <c r="C612" t="n">
-        <v>0.7000988711555972</v>
+        <v>0.7000988711555971</v>
       </c>
       <c r="D612" t="n">
         <v>0.2778783240014954</v>
@@ -18262,7 +18262,7 @@
         <v>6.13</v>
       </c>
       <c r="B615" t="n">
-        <v>0.3095660406688298</v>
+        <v>0.3095660406688296</v>
       </c>
       <c r="C615" t="n">
         <v>0.6787240155945506</v>
@@ -18726,10 +18726,10 @@
         <v>6.29</v>
       </c>
       <c r="B631" t="n">
-        <v>0.4495867862624693</v>
+        <v>0.4495867862624692</v>
       </c>
       <c r="C631" t="n">
-        <v>0.5503899938082738</v>
+        <v>0.5503899938082737</v>
       </c>
       <c r="D631" t="n">
         <v>0.4599796199933742</v>
@@ -18845,7 +18845,7 @@
         <v>0.4836085109778767</v>
       </c>
       <c r="C635" t="n">
-        <v>0.5152958814079994</v>
+        <v>0.5152958814079993</v>
       </c>
       <c r="D635" t="n">
         <v>0.497493047399318</v>
@@ -18900,10 +18900,10 @@
         <v>6.350000000000001</v>
       </c>
       <c r="B637" t="n">
-        <v>0.5003585324471344</v>
+        <v>0.5003585324471342</v>
       </c>
       <c r="C637" t="n">
-        <v>0.4974101962205498</v>
+        <v>0.4974101962205497</v>
       </c>
       <c r="D637" t="n">
         <v>0.5160012442337512</v>
@@ -19019,7 +19019,7 @@
         <v>0.5332341573468212</v>
       </c>
       <c r="C641" t="n">
-        <v>0.4610665752029938</v>
+        <v>0.4610665752029937</v>
       </c>
       <c r="D641" t="n">
         <v>0.5524073369950782</v>
@@ -19045,7 +19045,7 @@
         <v>6.4</v>
       </c>
       <c r="B642" t="n">
-        <v>0.5413080787440855</v>
+        <v>0.5413080787440856</v>
       </c>
       <c r="C642" t="n">
         <v>0.4518768400141071</v>
@@ -19219,10 +19219,10 @@
         <v>6.46</v>
       </c>
       <c r="B648" t="n">
-        <v>0.5883390633621658</v>
+        <v>0.5883390633621657</v>
       </c>
       <c r="C648" t="n">
-        <v>0.3960699015229349</v>
+        <v>0.3960699015229348</v>
       </c>
       <c r="D648" t="n">
         <v>0.613690884686369</v>
@@ -19280,7 +19280,7 @@
         <v>0.6034180664942499</v>
       </c>
       <c r="C650" t="n">
-        <v>0.3772763611599673</v>
+        <v>0.3772763611599674</v>
       </c>
       <c r="D650" t="n">
         <v>0.6305246058944287</v>
@@ -19396,7 +19396,7 @@
         <v>0.6325613239783745</v>
       </c>
       <c r="C654" t="n">
-        <v>0.3395288777941586</v>
+        <v>0.3395288777941585</v>
       </c>
       <c r="D654" t="n">
         <v>0.6631487213927149</v>
@@ -19425,7 +19425,7 @@
         <v>0.639621704027749</v>
       </c>
       <c r="C655" t="n">
-        <v>0.3300738585812915</v>
+        <v>0.3300738585812913</v>
       </c>
       <c r="D655" t="n">
         <v>0.6710717317202132</v>
@@ -19454,7 +19454,7 @@
         <v>0.6465871686870065</v>
       </c>
       <c r="C656" t="n">
-        <v>0.3206167860103574</v>
+        <v>0.3206167860103573</v>
       </c>
       <c r="D656" t="n">
         <v>0.6788962327877541</v>
@@ -19480,7 +19480,7 @@
         <v>6.55</v>
       </c>
       <c r="B657" t="n">
-        <v>0.6534553792165047</v>
+        <v>0.6534553792165045</v>
       </c>
       <c r="C657" t="n">
         <v>0.3111602479797134</v>
@@ -19625,10 +19625,10 @@
         <v>6.600000000000001</v>
       </c>
       <c r="B662" t="n">
-        <v>0.6862571695681715</v>
+        <v>0.6862571695681714</v>
       </c>
       <c r="C662" t="n">
-        <v>0.2639754223903578</v>
+        <v>0.2639754223903577</v>
       </c>
       <c r="D662" t="n">
         <v>0.7236292878984304</v>
@@ -19799,7 +19799,7 @@
         <v>6.66</v>
       </c>
       <c r="B668" t="n">
-        <v>0.7219389949636892</v>
+        <v>0.7219389949636893</v>
       </c>
       <c r="C668" t="n">
         <v>0.2079024230530122</v>
@@ -19828,7 +19828,7 @@
         <v>6.67</v>
       </c>
       <c r="B669" t="n">
-        <v>0.7274655451465371</v>
+        <v>0.7274655451465369</v>
       </c>
       <c r="C669" t="n">
         <v>0.1986498374074175</v>
@@ -19860,7 +19860,7 @@
         <v>0.7328664695730154</v>
       </c>
       <c r="C670" t="n">
-        <v>0.1894302667516972</v>
+        <v>0.1894302667516971</v>
       </c>
       <c r="D670" t="n">
         <v>0.7766681014332364</v>
@@ -20002,10 +20002,10 @@
         <v>6.73</v>
       </c>
       <c r="B675" t="n">
-        <v>0.7579176627181515</v>
+        <v>0.7579176627181516</v>
       </c>
       <c r="C675" t="n">
-        <v>0.1439103680841317</v>
+        <v>0.1439103680841318</v>
       </c>
       <c r="D675" t="n">
         <v>0.8054945886499113</v>
@@ -20147,10 +20147,10 @@
         <v>6.78</v>
       </c>
       <c r="B680" t="n">
-        <v>0.7795407170212616</v>
+        <v>0.7795407170212615</v>
       </c>
       <c r="C680" t="n">
-        <v>0.09956450784454646</v>
+        <v>0.0995645078445464</v>
       </c>
       <c r="D680" t="n">
         <v>0.8306655740212039</v>
@@ -20208,7 +20208,7 @@
         <v>0.7871803258980234</v>
       </c>
       <c r="C682" t="n">
-        <v>0.08221716445180177</v>
+        <v>0.08221716445180172</v>
       </c>
       <c r="D682" t="n">
         <v>0.8396533895952107</v>
@@ -20350,10 +20350,10 @@
         <v>6.850000000000001</v>
       </c>
       <c r="B687" t="n">
-        <v>0.8036411863865285</v>
+        <v>0.8036411863865286</v>
       </c>
       <c r="C687" t="n">
-        <v>0.03997440867163055</v>
+        <v>0.0399744086716306</v>
       </c>
       <c r="D687" t="n">
         <v>0.8592896968266581</v>
@@ -20382,7 +20382,7 @@
         <v>0.8064690016200147</v>
       </c>
       <c r="C688" t="n">
-        <v>0.03173502647623649</v>
+        <v>0.03173502647623655</v>
       </c>
       <c r="D688" t="n">
         <v>0.8627172039802946</v>
@@ -20408,10 +20408,10 @@
         <v>6.87</v>
       </c>
       <c r="B689" t="n">
-        <v>0.8091386998102977</v>
+        <v>0.8091386998102978</v>
       </c>
       <c r="C689" t="n">
-        <v>0.02356994161973691</v>
+        <v>0.02356994161973697</v>
       </c>
       <c r="D689" t="n">
         <v>0.8659742377532094</v>
@@ -20437,10 +20437,10 @@
         <v>6.88</v>
       </c>
       <c r="B690" t="n">
-        <v>0.8116489305475949</v>
+        <v>0.8116489305475948</v>
       </c>
       <c r="C690" t="n">
-        <v>0.01548105404600181</v>
+        <v>0.01548105404600186</v>
       </c>
       <c r="D690" t="n">
         <v>0.8690592144369262</v>
@@ -20614,7 +20614,7 @@
         <v>0.8232909096977317</v>
       </c>
       <c r="C696" t="n">
-        <v>-0.03134972369139588</v>
+        <v>-0.03134972369139594</v>
       </c>
       <c r="D696" t="n">
         <v>0.8838725975963734</v>
@@ -20643,7 +20643,7 @@
         <v>0.824650430985252</v>
       </c>
       <c r="C697" t="n">
-        <v>-0.03885471372159099</v>
+        <v>-0.03885471372159094</v>
       </c>
       <c r="D697" t="n">
         <v>0.8857124586700403</v>
@@ -20756,10 +20756,10 @@
         <v>6.99</v>
       </c>
       <c r="B701" t="n">
-        <v>0.8283908163841073</v>
+        <v>0.8283908163841072</v>
       </c>
       <c r="C701" t="n">
-        <v>-0.06795650034942613</v>
+        <v>-0.06795650034942619</v>
       </c>
       <c r="D701" t="n">
         <v>0.8912287287556604</v>
@@ -20846,7 +20846,7 @@
         <v>0.8293885260725629</v>
       </c>
       <c r="C704" t="n">
-        <v>-0.08877590316394279</v>
+        <v>-0.08877590316394274</v>
       </c>
       <c r="D704" t="n">
         <v>0.8934000882085014</v>
@@ -20875,7 +20875,7 @@
         <v>0.8293725622343986</v>
       </c>
       <c r="C705" t="n">
-        <v>-0.09551618011701729</v>
+        <v>-0.09551618011701724</v>
       </c>
       <c r="D705" t="n">
         <v>0.8937441904547919</v>
@@ -21191,7 +21191,7 @@
         <v>7.140000000000001</v>
       </c>
       <c r="B716" t="n">
-        <v>0.8175041931107936</v>
+        <v>0.8175041931107935</v>
       </c>
       <c r="C716" t="n">
         <v>-0.1626560775440286</v>
@@ -21249,10 +21249,10 @@
         <v>7.16</v>
       </c>
       <c r="B718" t="n">
-        <v>0.8130199424594774</v>
+        <v>0.8130199424594773</v>
       </c>
       <c r="C718" t="n">
-        <v>-0.1734169946508467</v>
+        <v>-0.1734169946508466</v>
       </c>
       <c r="D718" t="n">
         <v>0.8805690131879604</v>
@@ -21336,10 +21336,10 @@
         <v>7.19</v>
       </c>
       <c r="B721" t="n">
-        <v>0.8049440769054097</v>
+        <v>0.8049440769054096</v>
       </c>
       <c r="C721" t="n">
-        <v>-0.1886866333242274</v>
+        <v>-0.1886866333242273</v>
       </c>
       <c r="D721" t="n">
         <v>0.8728101995410411</v>
@@ -21394,10 +21394,10 @@
         <v>7.21</v>
       </c>
       <c r="B723" t="n">
-        <v>0.7986608501356405</v>
+        <v>0.7986608501356404</v>
       </c>
       <c r="C723" t="n">
-        <v>-0.1982764992768091</v>
+        <v>-0.198276499276809</v>
       </c>
       <c r="D723" t="n">
         <v>0.8666479524928644</v>
@@ -21510,10 +21510,10 @@
         <v>7.25</v>
       </c>
       <c r="B727" t="n">
-        <v>0.7839418266122139</v>
+        <v>0.7839418266122138</v>
       </c>
       <c r="C727" t="n">
-        <v>-0.2160176533235191</v>
+        <v>-0.216017653323519</v>
       </c>
       <c r="D727" t="n">
         <v>0.8519505167672567</v>
@@ -21539,7 +21539,7 @@
         <v>7.26</v>
       </c>
       <c r="B728" t="n">
-        <v>0.7798152546378441</v>
+        <v>0.779815254637844</v>
       </c>
       <c r="C728" t="n">
         <v>-0.2201501489318335</v>
@@ -21684,7 +21684,7 @@
         <v>7.31</v>
       </c>
       <c r="B733" t="n">
-        <v>0.7565226963115805</v>
+        <v>0.7565226963115804</v>
       </c>
       <c r="C733" t="n">
         <v>-0.2389757070547041</v>
@@ -21771,10 +21771,10 @@
         <v>7.34</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7404402451589591</v>
+        <v>0.740440245158959</v>
       </c>
       <c r="C736" t="n">
-        <v>-0.2487919279066836</v>
+        <v>-0.2487919279066837</v>
       </c>
       <c r="D736" t="n">
         <v>0.8074021077994638</v>
@@ -21916,7 +21916,7 @@
         <v>7.390000000000001</v>
       </c>
       <c r="B741" t="n">
-        <v>0.7101891738472795</v>
+        <v>0.7101891738472794</v>
       </c>
       <c r="C741" t="n">
         <v>-0.2626768422823581</v>
@@ -21977,7 +21977,7 @@
         <v>0.6969037810967722</v>
       </c>
       <c r="C743" t="n">
-        <v>-0.2673653118802156</v>
+        <v>-0.2673653118802155</v>
       </c>
       <c r="D743" t="n">
         <v>0.7619870244149669</v>
@@ -22032,7 +22032,7 @@
         <v>7.43</v>
       </c>
       <c r="B745" t="n">
-        <v>0.6829539799140183</v>
+        <v>0.6829539799140182</v>
       </c>
       <c r="C745" t="n">
         <v>-0.2715611827064097</v>
@@ -22383,7 +22383,7 @@
         <v>0.5858833768922326</v>
       </c>
       <c r="C757" t="n">
-        <v>-0.2865617225575255</v>
+        <v>-0.2865617225575254</v>
       </c>
       <c r="D757" t="n">
         <v>0.6444227830896133</v>
@@ -22438,7 +22438,7 @@
         <v>7.57</v>
       </c>
       <c r="B759" t="n">
-        <v>0.5675878022023659</v>
+        <v>0.5675878022023658</v>
       </c>
       <c r="C759" t="n">
         <v>-0.2874077833510875</v>
@@ -22586,7 +22586,7 @@
         <v>0.5193924176936927</v>
       </c>
       <c r="C764" t="n">
-        <v>-0.2875399283117886</v>
+        <v>-0.2875399283117887</v>
       </c>
       <c r="D764" t="n">
         <v>0.5733063318856926</v>
@@ -23833,7 +23833,7 @@
         <v>-0.0009125671739406982</v>
       </c>
       <c r="C807" t="n">
-        <v>-0.1938529327572207</v>
+        <v>-0.1938529327572206</v>
       </c>
       <c r="D807" t="n">
         <v>0.008375893226539888</v>
@@ -23917,7 +23917,7 @@
         <v>8.08</v>
       </c>
       <c r="B810" t="n">
-        <v>-0.04119062045825854</v>
+        <v>-0.04119062045825855</v>
       </c>
       <c r="C810" t="n">
         <v>-0.1829083230140411</v>
@@ -23975,7 +23975,7 @@
         <v>8.1</v>
       </c>
       <c r="B812" t="n">
-        <v>-0.06809800186484484</v>
+        <v>-0.06809800186484483</v>
       </c>
       <c r="C812" t="n">
         <v>-0.1754461518709463</v>
@@ -24326,7 +24326,7 @@
         <v>-0.229011523168047</v>
       </c>
       <c r="C824" t="n">
-        <v>-0.1288888659558667</v>
+        <v>-0.1288888659558668</v>
       </c>
       <c r="D824" t="n">
         <v>-0.2421529846220959</v>
@@ -24413,7 +24413,7 @@
         <v>-0.268706310151309</v>
       </c>
       <c r="C827" t="n">
-        <v>-0.1170416273009128</v>
+        <v>-0.1170416273009127</v>
       </c>
       <c r="D827" t="n">
         <v>-0.2858849768644695</v>
@@ -24468,7 +24468,7 @@
         <v>8.27</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.2949643894951968</v>
+        <v>-0.2949643894951967</v>
       </c>
       <c r="C829" t="n">
         <v>-0.1091572550315952</v>
@@ -24616,7 +24616,7 @@
         <v>-0.3597158676203087</v>
       </c>
       <c r="C834" t="n">
-        <v>-0.08961693866053014</v>
+        <v>-0.08961693866053011</v>
       </c>
       <c r="D834" t="n">
         <v>-0.3862916736998401</v>
@@ -24645,7 +24645,7 @@
         <v>-0.3724890830400154</v>
       </c>
       <c r="C835" t="n">
-        <v>-0.08575475233102264</v>
+        <v>-0.08575475233102262</v>
       </c>
       <c r="D835" t="n">
         <v>-0.400399232948599</v>
@@ -24703,7 +24703,7 @@
         <v>-0.3978348250517948</v>
       </c>
       <c r="C837" t="n">
-        <v>-0.07809270998151485</v>
+        <v>-0.07809270998151482</v>
       </c>
       <c r="D837" t="n">
         <v>-0.428403836123419</v>
@@ -24848,7 +24848,7 @@
         <v>-0.45989312975242</v>
       </c>
       <c r="C842" t="n">
-        <v>-0.0593955243642656</v>
+        <v>-0.05939552436426557</v>
       </c>
       <c r="D842" t="n">
         <v>-0.4970344722936043</v>
@@ -25019,10 +25019,10 @@
         <v>8.460000000000001</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.5314947015738224</v>
+        <v>-0.5314947015738223</v>
       </c>
       <c r="C848" t="n">
-        <v>-0.03810468780961099</v>
+        <v>-0.03810468780961102</v>
       </c>
       <c r="D848" t="n">
         <v>-0.5763283335440343</v>
@@ -25483,10 +25483,10 @@
         <v>8.620000000000001</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.7029053894318023</v>
+        <v>-0.7029053894318024</v>
       </c>
       <c r="C864" t="n">
-        <v>0.009634118815577353</v>
+        <v>0.009634118815577408</v>
       </c>
       <c r="D864" t="n">
         <v>-0.7666353043905324</v>
@@ -25686,10 +25686,10 @@
         <v>8.69</v>
       </c>
       <c r="B871" t="n">
-        <v>-0.7670742402493491</v>
+        <v>-0.767074240249349</v>
       </c>
       <c r="C871" t="n">
-        <v>0.02509460847879769</v>
+        <v>0.02509460847879763</v>
       </c>
       <c r="D871" t="n">
         <v>-0.8380599990410091</v>
@@ -25747,7 +25747,7 @@
         <v>-0.7840348216352546</v>
       </c>
       <c r="C873" t="n">
-        <v>0.02879602625169708</v>
+        <v>0.02879602625169714</v>
       </c>
       <c r="D873" t="n">
         <v>-0.8569559733066605</v>
@@ -25776,7 +25776,7 @@
         <v>-0.7922765181008717</v>
       </c>
       <c r="C874" t="n">
-        <v>0.03052109618133142</v>
+        <v>0.03052109618133136</v>
       </c>
       <c r="D874" t="n">
         <v>-0.8661408820844838</v>
@@ -25802,10 +25802,10 @@
         <v>8.73</v>
       </c>
       <c r="B875" t="n">
-        <v>-0.8003567105561079</v>
+        <v>-0.8003567105561078</v>
       </c>
       <c r="C875" t="n">
-        <v>0.03216083700798256</v>
+        <v>0.0321608370079825</v>
       </c>
       <c r="D875" t="n">
         <v>-0.8751475696344868</v>
@@ -25831,10 +25831,10 @@
         <v>8.74</v>
       </c>
       <c r="B876" t="n">
-        <v>-0.8082736190275226</v>
+        <v>-0.8082736190275227</v>
       </c>
       <c r="C876" t="n">
-        <v>0.03371411279800601</v>
+        <v>0.03371411279800607</v>
       </c>
       <c r="D876" t="n">
         <v>-0.883973965336796</v>
@@ -25860,10 +25860,10 @@
         <v>8.75</v>
       </c>
       <c r="B877" t="n">
-        <v>-0.8160255048440062</v>
+        <v>-0.816025504844006</v>
       </c>
       <c r="C877" t="n">
-        <v>0.03517982123825697</v>
+        <v>0.03517982123825703</v>
       </c>
       <c r="D877" t="n">
         <v>-0.8926180441513497</v>
@@ -25889,10 +25889,10 @@
         <v>8.76</v>
       </c>
       <c r="B878" t="n">
-        <v>-0.8236106710947363</v>
+        <v>-0.8236106710947362</v>
       </c>
       <c r="C878" t="n">
-        <v>0.03655689403041273</v>
+        <v>0.03655689403041268</v>
       </c>
       <c r="D878" t="n">
         <v>-0.901077827170599</v>
@@ -25918,10 +25918,10 @@
         <v>8.77</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.8310274630753786</v>
+        <v>-0.8310274630753784</v>
       </c>
       <c r="C879" t="n">
-        <v>0.03784429727431105</v>
+        <v>0.03784429727431099</v>
       </c>
       <c r="D879" t="n">
         <v>-0.9093513821593229</v>
@@ -25979,7 +25979,7 @@
         <v>-0.8453495190354203</v>
       </c>
       <c r="C881" t="n">
-        <v>0.04014613372971926</v>
+        <v>0.04014613372971931</v>
       </c>
       <c r="D881" t="n">
         <v>-0.9253323156133794</v>
@@ -26037,7 +26037,7 @@
         <v>-0.8589792954223052</v>
       </c>
       <c r="C883" t="n">
-        <v>0.04207776123019191</v>
+        <v>0.04207776123019197</v>
       </c>
       <c r="D883" t="n">
         <v>-0.9405463397644201</v>
@@ -26063,10 +26063,10 @@
         <v>8.82</v>
       </c>
       <c r="B884" t="n">
-        <v>-0.8655309024413798</v>
+        <v>-0.8655309024413796</v>
       </c>
       <c r="C884" t="n">
-        <v>0.04290253759147927</v>
+        <v>0.04290253759147933</v>
       </c>
       <c r="D884" t="n">
         <v>-0.9478614407342889</v>
@@ -26121,10 +26121,10 @@
         <v>8.84</v>
       </c>
       <c r="B886" t="n">
-        <v>-0.8781005906463842</v>
+        <v>-0.8781005906463841</v>
       </c>
       <c r="C886" t="n">
-        <v>0.04426591538594737</v>
+        <v>0.04426591538594743</v>
       </c>
       <c r="D886" t="n">
         <v>-0.961899612876837</v>
@@ -26182,7 +26182,7 @@
         <v>-0.8899501529113174</v>
       </c>
       <c r="C888" t="n">
-        <v>0.04524268999280084</v>
+        <v>0.04524268999280079</v>
       </c>
       <c r="D888" t="n">
         <v>-0.9751380547246798</v>
@@ -26353,10 +26353,10 @@
         <v>8.92</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.921083102038988</v>
+        <v>-0.9210831020389879</v>
       </c>
       <c r="C894" t="n">
-        <v>0.04580122495552347</v>
+        <v>0.04580122495552341</v>
       </c>
       <c r="D894" t="n">
         <v>-1.009942000540189</v>
@@ -26382,10 +26382,10 @@
         <v>8.93</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.925616847146854</v>
+        <v>-0.9256168471468539</v>
       </c>
       <c r="C895" t="n">
-        <v>0.04554268334100137</v>
+        <v>0.04554268334100131</v>
       </c>
       <c r="D895" t="n">
         <v>-1.015013092044743</v>
@@ -26440,10 +26440,10 @@
         <v>8.950000000000001</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.9341144836982805</v>
+        <v>-0.9341144836982804</v>
       </c>
       <c r="C897" t="n">
-        <v>0.04472023692069838</v>
+        <v>0.04472023692069832</v>
       </c>
       <c r="D897" t="n">
         <v>-1.024519827062252</v>
@@ -26469,10 +26469,10 @@
         <v>8.960000000000001</v>
       </c>
       <c r="B898" t="n">
-        <v>-0.9380767578918372</v>
+        <v>-0.9380767578918371</v>
       </c>
       <c r="C898" t="n">
-        <v>0.04415564686544476</v>
+        <v>0.04415564686544471</v>
       </c>
       <c r="D898" t="n">
         <v>-1.02895349409591</v>
@@ -26498,7 +26498,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.9418470052249296</v>
+        <v>-0.9418470052249295</v>
       </c>
       <c r="C899" t="n">
         <v>0.04348842131589792</v>
@@ -26527,10 +26527,10 @@
         <v>8.98</v>
       </c>
       <c r="B900" t="n">
-        <v>-0.9454245383841311</v>
+        <v>-0.945424538384131</v>
       </c>
       <c r="C900" t="n">
-        <v>0.0427183167022212</v>
+        <v>0.04271831670222115</v>
       </c>
       <c r="D900" t="n">
         <v>-1.037176894719209</v>
@@ -26585,10 +26585,10 @@
         <v>9</v>
       </c>
       <c r="B902" t="n">
-        <v>-0.9519989572231977</v>
+        <v>-0.9519989572231976</v>
       </c>
       <c r="C902" t="n">
-        <v>0.04086869533852072</v>
+        <v>0.04086869533852078</v>
       </c>
       <c r="D902" t="n">
         <v>-1.044536314260855</v>
@@ -26617,7 +26617,7 @@
         <v>-0.9549947130026593</v>
       </c>
       <c r="C903" t="n">
-        <v>0.03978889108509343</v>
+        <v>0.03978889108509337</v>
       </c>
       <c r="D903" t="n">
         <v>-1.04789021198809</v>
@@ -26704,7 +26704,7 @@
         <v>-0.9628104201614027</v>
       </c>
       <c r="C906" t="n">
-        <v>0.03592862147336634</v>
+        <v>0.0359286214733664</v>
       </c>
       <c r="D906" t="n">
         <v>-1.056641258186574</v>
@@ -26759,10 +26759,10 @@
         <v>9.06</v>
       </c>
       <c r="B908" t="n">
-        <v>-0.9670407915770142</v>
+        <v>-0.9670407915770141</v>
       </c>
       <c r="C908" t="n">
-        <v>0.03283779669308984</v>
+        <v>0.03283779669308989</v>
       </c>
       <c r="D908" t="n">
         <v>-1.061378034591616</v>
@@ -26846,10 +26846,10 @@
         <v>9.09</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.9719108293475675</v>
+        <v>-0.9719108293475673</v>
       </c>
       <c r="C911" t="n">
-        <v>0.0274275433423784</v>
+        <v>0.02742754334237846</v>
       </c>
       <c r="D911" t="n">
         <v>-1.066829745948557</v>
@@ -26878,7 +26878,7 @@
         <v>-0.9731400764570066</v>
       </c>
       <c r="C912" t="n">
-        <v>0.02541847432589478</v>
+        <v>0.02541847432589484</v>
       </c>
       <c r="D912" t="n">
         <v>-1.068205054580922</v>
@@ -26994,7 +26994,7 @@
         <v>-0.9760857030811716</v>
       </c>
       <c r="C916" t="n">
-        <v>0.01636164609645557</v>
+        <v>0.01636164609645563</v>
       </c>
       <c r="D916" t="n">
         <v>-1.07149369174756</v>
@@ -27052,7 +27052,7 @@
         <v>-0.9763769806506195</v>
       </c>
       <c r="C918" t="n">
-        <v>0.01122634942759004</v>
+        <v>0.0112263494275901</v>
       </c>
       <c r="D918" t="n">
         <v>-1.071810876974429</v>
@@ -27110,7 +27110,7 @@
         <v>-0.9758827317838574</v>
       </c>
       <c r="C920" t="n">
-        <v>0.005691573706500197</v>
+        <v>0.005691573706500141</v>
       </c>
       <c r="D920" t="n">
         <v>-1.071244984320094</v>
@@ -27168,7 +27168,7 @@
         <v>-0.9746055654621428</v>
       </c>
       <c r="C922" t="n">
-        <v>-0.0002380559420211981</v>
+        <v>-0.0002380559420211426</v>
       </c>
       <c r="D922" t="n">
         <v>-1.069798397531587</v>
@@ -27194,10 +27194,10 @@
         <v>9.210000000000001</v>
       </c>
       <c r="B923" t="n">
-        <v>-0.9736744181183299</v>
+        <v>-0.9736744181183298</v>
       </c>
       <c r="C923" t="n">
-        <v>-0.003349323503816615</v>
+        <v>-0.00334932350381667</v>
       </c>
       <c r="D923" t="n">
         <v>-1.068745834056555</v>
@@ -27252,10 +27252,10 @@
         <v>9.23</v>
       </c>
       <c r="B925" t="n">
-        <v>-0.9712294816036658</v>
+        <v>-0.9712294816036657</v>
       </c>
       <c r="C925" t="n">
-        <v>-0.009861187534379479</v>
+        <v>-0.009861187534379423</v>
       </c>
       <c r="D925" t="n">
         <v>-1.065984635967243</v>
@@ -27281,10 +27281,10 @@
         <v>9.24</v>
       </c>
       <c r="B926" t="n">
-        <v>-0.9697168325746277</v>
+        <v>-0.9697168325746276</v>
       </c>
       <c r="C926" t="n">
-        <v>-0.01326023717197172</v>
+        <v>-0.01326023717197178</v>
       </c>
       <c r="D926" t="n">
         <v>-1.064277155736077</v>
@@ -27310,10 +27310,10 @@
         <v>9.25</v>
       </c>
       <c r="B927" t="n">
-        <v>-0.9680115701990405</v>
+        <v>-0.9680115701990404</v>
       </c>
       <c r="C927" t="n">
-        <v>-0.01675360326828312</v>
+        <v>-0.01675360326828307</v>
       </c>
       <c r="D927" t="n">
         <v>-1.062352616540207</v>
@@ -27397,10 +27397,10 @@
         <v>9.279999999999999</v>
       </c>
       <c r="B930" t="n">
-        <v>-0.9617472450990766</v>
+        <v>-0.9617472450990765</v>
       </c>
       <c r="C930" t="n">
-        <v>-0.02779071936895483</v>
+        <v>-0.02779071936895489</v>
       </c>
       <c r="D930" t="n">
         <v>-1.055284071649431</v>
@@ -27487,7 +27487,7 @@
         <v>-0.9537771036650349</v>
       </c>
       <c r="C933" t="n">
-        <v>-0.03964313442749223</v>
+        <v>-0.03964313442749218</v>
       </c>
       <c r="D933" t="n">
         <v>-1.046291022603409</v>
@@ -27574,7 +27574,7 @@
         <v>-0.9441261534355128</v>
       </c>
       <c r="C936" t="n">
-        <v>-0.05228234712108087</v>
+        <v>-0.05228234712108093</v>
       </c>
       <c r="D936" t="n">
         <v>-1.035400109531534</v>
@@ -27600,10 +27600,10 @@
         <v>9.35</v>
       </c>
       <c r="B937" t="n">
-        <v>-0.9405405183830406</v>
+        <v>-0.9405405183830405</v>
       </c>
       <c r="C937" t="n">
-        <v>-0.05666491248217137</v>
+        <v>-0.05666491248217131</v>
       </c>
       <c r="D937" t="n">
         <v>-1.031353284103968</v>
@@ -27632,7 +27632,7 @@
         <v>-0.9367724454481412</v>
       </c>
       <c r="C938" t="n">
-        <v>-0.06113019601360414</v>
+        <v>-0.0611301960136042</v>
       </c>
       <c r="D938" t="n">
         <v>-1.02710024007451</v>
@@ -27687,7 +27687,7 @@
         <v>9.380000000000001</v>
       </c>
       <c r="B940" t="n">
-        <v>-0.9286938307718439</v>
+        <v>-0.9286938307718438</v>
       </c>
       <c r="C940" t="n">
         <v>-0.07030380384365975</v>
@@ -27716,10 +27716,10 @@
         <v>9.390000000000001</v>
       </c>
       <c r="B941" t="n">
-        <v>-0.9243858220499269</v>
+        <v>-0.9243858220499268</v>
       </c>
       <c r="C941" t="n">
-        <v>-0.07500948562439858</v>
+        <v>-0.07500948562439852</v>
       </c>
       <c r="D941" t="n">
         <v>-1.013117084072783</v>
@@ -27803,7 +27803,7 @@
         <v>9.42</v>
       </c>
       <c r="B944" t="n">
-        <v>-0.9104031044125098</v>
+        <v>-0.9104031044125096</v>
       </c>
       <c r="C944" t="n">
         <v>-0.08958548115464832</v>
@@ -27893,7 +27893,7 @@
         <v>-0.8948625711697056</v>
       </c>
       <c r="C947" t="n">
-        <v>-0.1048193700604793</v>
+        <v>-0.1048193700604792</v>
       </c>
       <c r="D947" t="n">
         <v>-0.9797747968062819</v>
@@ -27977,7 +27977,7 @@
         <v>9.48</v>
       </c>
       <c r="B950" t="n">
-        <v>-0.8778058964241293</v>
+        <v>-0.8778058964241292</v>
       </c>
       <c r="C950" t="n">
         <v>-0.1206697541984819</v>
@@ -28183,7 +28183,7 @@
         <v>-0.8323693271960924</v>
       </c>
       <c r="C957" t="n">
-        <v>-0.1598006328932086</v>
+        <v>-0.1598006328932085</v>
       </c>
       <c r="D957" t="n">
         <v>-0.9091428676557253</v>
@@ -28528,7 +28528,7 @@
         <v>9.67</v>
       </c>
       <c r="B969" t="n">
-        <v>-0.737734310676082</v>
+        <v>-0.7377343106760819</v>
       </c>
       <c r="C969" t="n">
         <v>-0.2323491333626841</v>
@@ -28557,7 +28557,7 @@
         <v>9.68</v>
       </c>
       <c r="B970" t="n">
-        <v>-0.7289858110037928</v>
+        <v>-0.7289858110037927</v>
       </c>
       <c r="C970" t="n">
         <v>-0.2386214524551953</v>
@@ -28644,7 +28644,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.7020183566560834</v>
+        <v>-0.7020183566560833</v>
       </c>
       <c r="C973" t="n">
         <v>-0.2575808443613208</v>
@@ -28673,7 +28673,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="B974" t="n">
-        <v>-0.6927966526795984</v>
+        <v>-0.6927966526795983</v>
       </c>
       <c r="C974" t="n">
         <v>-0.2639409104034616</v>
@@ -28705,7 +28705,7 @@
         <v>-0.6834627854704503</v>
       </c>
       <c r="C975" t="n">
-        <v>-0.2703174667192361</v>
+        <v>-0.270317466719236</v>
       </c>
       <c r="D975" t="n">
         <v>-0.7406297052283164</v>
@@ -28731,10 +28731,10 @@
         <v>9.74</v>
       </c>
       <c r="B976" t="n">
-        <v>-0.6740192593975665</v>
+        <v>-0.6740192593975666</v>
       </c>
       <c r="C976" t="n">
-        <v>-0.2767083046683413</v>
+        <v>-0.2767083046683414</v>
       </c>
       <c r="D976" t="n">
         <v>-0.7299352146334485</v>
@@ -28876,7 +28876,7 @@
         <v>9.790000000000001</v>
       </c>
       <c r="B981" t="n">
-        <v>-0.6252459932327037</v>
+        <v>-0.6252459932327036</v>
       </c>
       <c r="C981" t="n">
         <v>-0.3087984881590904</v>
@@ -28963,10 +28963,10 @@
         <v>9.82</v>
       </c>
       <c r="B984" t="n">
-        <v>-0.5948312257465831</v>
+        <v>-0.594831225746583</v>
       </c>
       <c r="C984" t="n">
-        <v>-0.3280798733505363</v>
+        <v>-0.3280798733505362</v>
       </c>
       <c r="D984" t="n">
         <v>-0.6402319057511803</v>
@@ -29053,7 +29053,7 @@
         <v>-0.5636411461058789</v>
       </c>
       <c r="C987" t="n">
-        <v>-0.3473060130020087</v>
+        <v>-0.3473060130020086</v>
       </c>
       <c r="D987" t="n">
         <v>-0.6048897786931323</v>
@@ -29282,10 +29282,10 @@
         <v>9.93</v>
       </c>
       <c r="B995" t="n">
-        <v>-0.4772392014532834</v>
+        <v>-0.4772392014532833</v>
       </c>
       <c r="C995" t="n">
-        <v>-0.3978278271683109</v>
+        <v>-0.3978278271683108</v>
       </c>
       <c r="D995" t="n">
         <v>-0.5069650344062809</v>
@@ -29340,10 +29340,10 @@
         <v>9.950000000000001</v>
       </c>
       <c r="B997" t="n">
-        <v>-0.4550258260378063</v>
+        <v>-0.4550258260378062</v>
       </c>
       <c r="C997" t="n">
-        <v>-0.4101868053052649</v>
+        <v>-0.4101868053052648</v>
       </c>
       <c r="D997" t="n">
         <v>-0.481785855727909</v>
@@ -29517,7 +29517,7 @@
         <v>-0.3872774052234589</v>
       </c>
       <c r="C1003" t="n">
-        <v>-0.4463120501869899</v>
+        <v>-0.44631205018699</v>
       </c>
       <c r="D1003" t="n">
         <v>-0.4049887357337095</v>
@@ -29604,7 +29604,7 @@
         <v>-0.3529213960244784</v>
       </c>
       <c r="C1006" t="n">
-        <v>-0.4637239233169633</v>
+        <v>-0.4637239233169632</v>
       </c>
       <c r="D1006" t="n">
         <v>-0.3660443246448418</v>
@@ -29891,10 +29891,10 @@
         <v>10.14</v>
       </c>
       <c r="B1016" t="n">
-        <v>-0.2372619258545027</v>
+        <v>-0.2372619258545026</v>
       </c>
       <c r="C1016" t="n">
-        <v>-0.5176857239578768</v>
+        <v>-0.5176857239578767</v>
       </c>
       <c r="D1016" t="n">
         <v>-0.2349604740562146</v>
@@ -30007,7 +30007,7 @@
         <v>10.18</v>
       </c>
       <c r="B1020" t="n">
-        <v>-0.1909596614545044</v>
+        <v>-0.1909596614545043</v>
       </c>
       <c r="C1020" t="n">
         <v>-0.5371597028082815</v>
@@ -30065,10 +30065,10 @@
         <v>10.2</v>
       </c>
       <c r="B1022" t="n">
-        <v>-0.1678904843734013</v>
+        <v>-0.1678904843734012</v>
       </c>
       <c r="C1022" t="n">
-        <v>-0.5463751676537977</v>
+        <v>-0.5463751676537976</v>
       </c>
       <c r="D1022" t="n">
         <v>-0.1563724540041957</v>
@@ -30094,10 +30094,10 @@
         <v>10.21</v>
       </c>
       <c r="B1023" t="n">
-        <v>-0.1563861026416195</v>
+        <v>-0.1563861026416194</v>
       </c>
       <c r="C1023" t="n">
-        <v>-0.5508452061698507</v>
+        <v>-0.5508452061698506</v>
       </c>
       <c r="D1023" t="n">
         <v>-0.143343511607989</v>
@@ -30239,10 +30239,10 @@
         <v>10.26</v>
       </c>
       <c r="B1028" t="n">
-        <v>-0.09927572889204467</v>
+        <v>-0.0992757288920447</v>
       </c>
       <c r="C1028" t="n">
-        <v>-0.5717373403170185</v>
+        <v>-0.5717373403170184</v>
       </c>
       <c r="D1028" t="n">
         <v>-0.07868615700701694</v>
@@ -30761,7 +30761,7 @@
         <v>10.44</v>
       </c>
       <c r="B1046" t="n">
-        <v>0.0963011841970195</v>
+        <v>0.09630118419701944</v>
       </c>
       <c r="C1046" t="n">
         <v>-0.6237324847326291</v>
@@ -30851,7 +30851,7 @@
         <v>0.1266969431593301</v>
       </c>
       <c r="C1049" t="n">
-        <v>-0.6284068099329786</v>
+        <v>-0.6284068099329785</v>
       </c>
       <c r="D1049" t="n">
         <v>0.1765542453972861</v>
@@ -30877,10 +30877,10 @@
         <v>10.48</v>
       </c>
       <c r="B1050" t="n">
-        <v>0.1366553867916964</v>
+        <v>0.1366553867916963</v>
       </c>
       <c r="C1050" t="n">
-        <v>-0.6296899528675051</v>
+        <v>-0.629689952867505</v>
       </c>
       <c r="D1050" t="n">
         <v>0.1877678766561564</v>
@@ -30993,7 +30993,7 @@
         <v>10.52</v>
       </c>
       <c r="B1054" t="n">
-        <v>0.1755654712103275</v>
+        <v>0.1755654712103274</v>
       </c>
       <c r="C1054" t="n">
         <v>-0.6334145526957133</v>
@@ -31109,7 +31109,7 @@
         <v>10.56</v>
       </c>
       <c r="B1058" t="n">
-        <v>0.2129010104987168</v>
+        <v>0.2129010104987167</v>
       </c>
       <c r="C1058" t="n">
         <v>-0.6348321465325631</v>
@@ -31138,7 +31138,7 @@
         <v>10.57</v>
       </c>
       <c r="B1059" t="n">
-        <v>0.2219744118749214</v>
+        <v>0.2219744118749215</v>
       </c>
       <c r="C1059" t="n">
         <v>-0.6348183238115219</v>
@@ -31199,7 +31199,7 @@
         <v>0.2397958168351484</v>
       </c>
       <c r="C1061" t="n">
-        <v>-0.6343423412789898</v>
+        <v>-0.6343423412789897</v>
       </c>
       <c r="D1061" t="n">
         <v>0.3036099421867853</v>
@@ -31225,7 +31225,7 @@
         <v>10.6</v>
       </c>
       <c r="B1062" t="n">
-        <v>0.2485403038090997</v>
+        <v>0.2485403038090996</v>
       </c>
       <c r="C1062" t="n">
         <v>-0.6338784945809293</v>
@@ -31254,7 +31254,7 @@
         <v>10.61</v>
       </c>
       <c r="B1063" t="n">
-        <v>0.2571716980213113</v>
+        <v>0.2571716980213114</v>
       </c>
       <c r="C1063" t="n">
         <v>-0.6332630216231663</v>
@@ -31312,7 +31312,7 @@
         <v>10.63</v>
       </c>
       <c r="B1065" t="n">
-        <v>0.2740885875571137</v>
+        <v>0.2740885875571136</v>
       </c>
       <c r="C1065" t="n">
         <v>-0.6315742788020238</v>
@@ -31631,7 +31631,7 @@
         <v>10.74</v>
       </c>
       <c r="B1076" t="n">
-        <v>0.3583841955394427</v>
+        <v>0.3583841955394426</v>
       </c>
       <c r="C1076" t="n">
         <v>-0.6111852795443451</v>
@@ -31660,10 +31660,10 @@
         <v>10.75</v>
       </c>
       <c r="B1077" t="n">
-        <v>0.365275375928782</v>
+        <v>0.3652753759287819</v>
       </c>
       <c r="C1077" t="n">
-        <v>-0.608388798489812</v>
+        <v>-0.6083887984898119</v>
       </c>
       <c r="D1077" t="n">
         <v>0.443300969214996</v>
@@ -31863,7 +31863,7 @@
         <v>10.82</v>
       </c>
       <c r="B1084" t="n">
-        <v>0.4097085812887337</v>
+        <v>0.4097085812887336</v>
       </c>
       <c r="C1084" t="n">
         <v>-0.5843822063457788</v>
@@ -32211,10 +32211,10 @@
         <v>10.94</v>
       </c>
       <c r="B1096" t="n">
-        <v>0.4697749571992982</v>
+        <v>0.4697749571992981</v>
       </c>
       <c r="C1096" t="n">
-        <v>-0.5253206423030238</v>
+        <v>-0.5253206423030237</v>
       </c>
       <c r="D1096" t="n">
         <v>0.5568449650593603</v>
@@ -32298,7 +32298,7 @@
         <v>10.97</v>
       </c>
       <c r="B1099" t="n">
-        <v>0.4815217057069831</v>
+        <v>0.481521705706983</v>
       </c>
       <c r="C1099" t="n">
         <v>-0.5070932055767488</v>
@@ -32327,10 +32327,10 @@
         <v>10.98</v>
       </c>
       <c r="B1100" t="n">
-        <v>0.4851434582258696</v>
+        <v>0.4851434582258695</v>
       </c>
       <c r="C1100" t="n">
-        <v>-0.5007171161853166</v>
+        <v>-0.5007171161853164</v>
       </c>
       <c r="D1100" t="n">
         <v>0.572937083184397</v>
@@ -32791,10 +32791,10 @@
         <v>11.14</v>
       </c>
       <c r="B1116" t="n">
-        <v>0.523161872720365</v>
+        <v>0.5231618727203649</v>
       </c>
       <c r="C1116" t="n">
-        <v>-0.3792377277423719</v>
+        <v>-0.3792377277423718</v>
       </c>
       <c r="D1116" t="n">
         <v>0.6096271032764786</v>
@@ -32881,7 +32881,7 @@
         <v>0.5261720360669463</v>
       </c>
       <c r="C1119" t="n">
-        <v>-0.3526294433587426</v>
+        <v>-0.3526294433587427</v>
       </c>
       <c r="D1119" t="n">
         <v>0.6116422741660965</v>
@@ -32994,7 +32994,7 @@
         <v>11.21</v>
       </c>
       <c r="B1123" t="n">
-        <v>0.5282227229135817</v>
+        <v>0.5282227229135816</v>
       </c>
       <c r="C1123" t="n">
         <v>-0.3154363951573947</v>
@@ -33055,7 +33055,7 @@
         <v>0.5284215476333879</v>
       </c>
       <c r="C1125" t="n">
-        <v>-0.2961371033791086</v>
+        <v>-0.2961371033791087</v>
       </c>
       <c r="D1125" t="n">
         <v>0.6112149048076243</v>
@@ -33200,7 +33200,7 @@
         <v>0.5265691573008707</v>
       </c>
       <c r="C1130" t="n">
-        <v>-0.2459628740920524</v>
+        <v>-0.2459628740920523</v>
       </c>
       <c r="D1130" t="n">
         <v>0.6064511800823731</v>
@@ -33226,7 +33226,7 @@
         <v>11.29</v>
       </c>
       <c r="B1131" t="n">
-        <v>0.5258044618159265</v>
+        <v>0.5258044618159264</v>
       </c>
       <c r="C1131" t="n">
         <v>-0.2356141391777893</v>
@@ -33487,7 +33487,7 @@
         <v>11.38</v>
       </c>
       <c r="B1140" t="n">
-        <v>0.5132839324834764</v>
+        <v>0.5132839324834763</v>
       </c>
       <c r="C1140" t="n">
         <v>-0.1382571064520583</v>
@@ -33606,7 +33606,7 @@
         <v>0.5046296202837921</v>
       </c>
       <c r="C1144" t="n">
-        <v>-0.09283210471949255</v>
+        <v>-0.09283210471949258</v>
       </c>
       <c r="D1144" t="n">
         <v>0.5732924691245075</v>
@@ -33635,7 +33635,7 @@
         <v>0.5021865296266661</v>
       </c>
       <c r="C1145" t="n">
-        <v>-0.08129700191097919</v>
+        <v>-0.08129700191097922</v>
       </c>
       <c r="D1145" t="n">
         <v>0.5698875561726943</v>
@@ -33693,7 +33693,7 @@
         <v>0.4969763248239385</v>
       </c>
       <c r="C1147" t="n">
-        <v>-0.058029943596383</v>
+        <v>-0.05802994359638303</v>
       </c>
       <c r="D1147" t="n">
         <v>0.5626944415775076</v>
@@ -33719,10 +33719,10 @@
         <v>11.46</v>
       </c>
       <c r="B1148" t="n">
-        <v>0.494212579325866</v>
+        <v>0.4942125793258661</v>
       </c>
       <c r="C1148" t="n">
-        <v>-0.04630316240813478</v>
+        <v>-0.04630316240813476</v>
       </c>
       <c r="D1148" t="n">
         <v>0.5589102470263134</v>
@@ -33751,7 +33751,7 @@
         <v>0.4913453632092296</v>
       </c>
       <c r="C1149" t="n">
-        <v>-0.0345177011697578</v>
+        <v>-0.03451770116975783</v>
       </c>
       <c r="D1149" t="n">
         <v>0.5550036886271443</v>
@@ -33809,7 +33809,7 @@
         <v>0.4853075528194845</v>
       </c>
       <c r="C1151" t="n">
-        <v>-0.01078133494195779</v>
+        <v>-0.01078133494195777</v>
       </c>
       <c r="D1151" t="n">
         <v>0.5468318598979022</v>
@@ -34009,10 +34009,10 @@
         <v>11.56</v>
       </c>
       <c r="B1158" t="n">
-        <v>0.4611815819149699</v>
+        <v>0.4611815819149698</v>
       </c>
       <c r="C1158" t="n">
-        <v>0.07374910910099536</v>
+        <v>0.07374910910099539</v>
       </c>
       <c r="D1158" t="n">
         <v>0.5146928702342853</v>
@@ -34360,7 +34360,7 @@
         <v>0.4105429500983042</v>
       </c>
       <c r="C1170" t="n">
-        <v>0.2216852178845045</v>
+        <v>0.2216852178845044</v>
       </c>
       <c r="D1170" t="n">
         <v>0.4486545871930235</v>
@@ -34679,7 +34679,7 @@
         <v>0.3564672747635945</v>
       </c>
       <c r="C1181" t="n">
-        <v>0.356994047642639</v>
+        <v>0.3569940476426391</v>
       </c>
       <c r="D1181" t="n">
         <v>0.37914893485079</v>
@@ -34734,7 +34734,7 @@
         <v>11.81</v>
       </c>
       <c r="B1183" t="n">
-        <v>0.3460855262612281</v>
+        <v>0.346085526261228</v>
       </c>
       <c r="C1183" t="n">
         <v>0.3812460666666752</v>
@@ -34853,7 +34853,7 @@
         <v>0.3249669645843182</v>
       </c>
       <c r="C1187" t="n">
-        <v>0.4292269690103096</v>
+        <v>0.4292269690103095</v>
       </c>
       <c r="D1187" t="n">
         <v>0.3389263807550031</v>
@@ -34879,10 +34879,10 @@
         <v>11.86</v>
       </c>
       <c r="B1188" t="n">
-        <v>0.319626507532616</v>
+        <v>0.3196265075326159</v>
       </c>
       <c r="C1188" t="n">
-        <v>0.4410961246601288</v>
+        <v>0.4410961246601287</v>
       </c>
       <c r="D1188" t="n">
         <v>0.3321211782256069</v>
@@ -34937,7 +34937,7 @@
         <v>11.88</v>
       </c>
       <c r="B1190" t="n">
-        <v>0.3088883992293198</v>
+        <v>0.3088883992293199</v>
       </c>
       <c r="C1190" t="n">
         <v>0.4646627700144825</v>
@@ -35027,7 +35027,7 @@
         <v>0.292672010043083</v>
       </c>
       <c r="C1193" t="n">
-        <v>0.4995402510107108</v>
+        <v>0.4995402510107106</v>
       </c>
       <c r="D1193" t="n">
         <v>0.2978246702611456</v>
@@ -35053,7 +35053,7 @@
         <v>11.92</v>
       </c>
       <c r="B1194" t="n">
-        <v>0.2872463981381016</v>
+        <v>0.2872463981381015</v>
       </c>
       <c r="C1194" t="n">
         <v>0.5110286072625159</v>
@@ -35085,7 +35085,7 @@
         <v>0.2818144393076574</v>
       </c>
       <c r="C1195" t="n">
-        <v>0.5224434836044708</v>
+        <v>0.5224434836044707</v>
       </c>
       <c r="D1195" t="n">
         <v>0.2840308539508864</v>
@@ -35111,10 +35111,10 @@
         <v>11.94</v>
       </c>
       <c r="B1196" t="n">
-        <v>0.2763783613704686</v>
+        <v>0.2763783613704685</v>
       </c>
       <c r="C1196" t="n">
-        <v>0.5337820539310917</v>
+        <v>0.5337820539310916</v>
       </c>
       <c r="D1196" t="n">
         <v>0.2771287252628588</v>
@@ -35401,7 +35401,7 @@
         <v>12.04</v>
       </c>
       <c r="B1206" t="n">
-        <v>0.2222753567419308</v>
+        <v>0.2222753567419309</v>
       </c>
       <c r="C1206" t="n">
         <v>0.6423608025632811</v>
@@ -35549,7 +35549,7 @@
         <v>0.1958308377734357</v>
       </c>
       <c r="C1211" t="n">
-        <v>0.6928342140980028</v>
+        <v>0.6928342140980027</v>
       </c>
       <c r="D1211" t="n">
         <v>0.1751065495093373</v>
@@ -35604,10 +35604,10 @@
         <v>12.11</v>
       </c>
       <c r="B1213" t="n">
-        <v>0.1854494826253528</v>
+        <v>0.1854494826253529</v>
       </c>
       <c r="C1213" t="n">
-        <v>0.7122083686550387</v>
+        <v>0.7122083686550388</v>
       </c>
       <c r="D1213" t="n">
         <v>0.1619841288879793</v>
@@ -35691,10 +35691,10 @@
         <v>12.14</v>
       </c>
       <c r="B1216" t="n">
-        <v>0.1701383169947326</v>
+        <v>0.1701383169947325</v>
       </c>
       <c r="C1216" t="n">
-        <v>0.7403344276210672</v>
+        <v>0.740334427621067</v>
       </c>
       <c r="D1216" t="n">
         <v>0.1426389008674583</v>
@@ -35836,10 +35836,10 @@
         <v>12.19</v>
       </c>
       <c r="B1221" t="n">
-        <v>0.1454448417195495</v>
+        <v>0.1454448417195494</v>
       </c>
       <c r="C1221" t="n">
-        <v>0.7845598879441105</v>
+        <v>0.7845598879441104</v>
       </c>
       <c r="D1221" t="n">
         <v>0.1114591804969788</v>
@@ -35952,7 +35952,7 @@
         <v>12.23</v>
       </c>
       <c r="B1225" t="n">
-        <v>0.126567029117929</v>
+        <v>0.1265670291179289</v>
       </c>
       <c r="C1225" t="n">
         <v>0.8173917778339399</v>
@@ -35984,7 +35984,7 @@
         <v>0.1219842865727211</v>
       </c>
       <c r="C1226" t="n">
-        <v>0.8252279006517409</v>
+        <v>0.8252279006517408</v>
       </c>
       <c r="D1226" t="n">
         <v>0.08185692455306978</v>
@@ -36039,10 +36039,10 @@
         <v>12.26</v>
       </c>
       <c r="B1228" t="n">
-        <v>0.1129948457603349</v>
+        <v>0.112994845760335</v>
       </c>
       <c r="C1228" t="n">
-        <v>0.8404396248578164</v>
+        <v>0.8404396248578163</v>
       </c>
       <c r="D1228" t="n">
         <v>0.07051928343869142</v>
@@ -36126,10 +36126,10 @@
         <v>12.29</v>
       </c>
       <c r="B1231" t="n">
-        <v>0.09997547857872402</v>
+        <v>0.09997547857872396</v>
       </c>
       <c r="C1231" t="n">
-        <v>0.86207662903705</v>
+        <v>0.8620766290370498</v>
       </c>
       <c r="D1231" t="n">
         <v>0.0541041491402188</v>
@@ -36184,10 +36184,10 @@
         <v>12.31</v>
       </c>
       <c r="B1233" t="n">
-        <v>0.09162430164997853</v>
+        <v>0.09162430164997848</v>
       </c>
       <c r="C1233" t="n">
-        <v>0.8756923540496195</v>
+        <v>0.8756923540496196</v>
       </c>
       <c r="D1233" t="n">
         <v>0.04357811999586687</v>
@@ -36213,7 +36213,7 @@
         <v>12.32</v>
       </c>
       <c r="B1234" t="n">
-        <v>0.08755182550269996</v>
+        <v>0.08755182550269991</v>
       </c>
       <c r="C1234" t="n">
         <v>0.8822521371504111</v>
@@ -36242,7 +36242,7 @@
         <v>12.33</v>
       </c>
       <c r="B1235" t="n">
-        <v>0.08355006162802314</v>
+        <v>0.0835500616280232</v>
       </c>
       <c r="C1235" t="n">
         <v>0.8886442283905027</v>
@@ -36271,7 +36271,7 @@
         <v>12.34</v>
       </c>
       <c r="B1236" t="n">
-        <v>0.07962044954986647</v>
+        <v>0.07962044954986641</v>
       </c>
       <c r="C1236" t="n">
         <v>0.8948669492152317</v>
@@ -36300,7 +36300,7 @@
         <v>12.35</v>
       </c>
       <c r="B1237" t="n">
-        <v>0.07576439742561258</v>
+        <v>0.07576439742561253</v>
       </c>
       <c r="C1237" t="n">
         <v>0.9009186621582514</v>
@@ -36416,10 +36416,10 @@
         <v>12.39</v>
       </c>
       <c r="B1241" t="n">
-        <v>0.06110282914154502</v>
+        <v>0.06110282914154497</v>
       </c>
       <c r="C1241" t="n">
-        <v>0.9233841497791917</v>
+        <v>0.9233841497791916</v>
       </c>
       <c r="D1241" t="n">
         <v>0.005134532807104276</v>
@@ -36445,10 +36445,10 @@
         <v>12.4</v>
       </c>
       <c r="B1242" t="n">
-        <v>0.0576345707358058</v>
+        <v>0.05763457073580575</v>
       </c>
       <c r="C1242" t="n">
-        <v>0.9285577315430579</v>
+        <v>0.9285577315430578</v>
       </c>
       <c r="D1242" t="n">
         <v>0.0007693389044106293</v>
@@ -36532,7 +36532,7 @@
         <v>12.43</v>
       </c>
       <c r="B1245" t="n">
-        <v>0.04772242379258407</v>
+        <v>0.04772242379258412</v>
       </c>
       <c r="C1245" t="n">
         <v>0.9429935053114396</v>
@@ -36561,7 +36561,7 @@
         <v>12.44</v>
       </c>
       <c r="B1246" t="n">
-        <v>0.04458639085074911</v>
+        <v>0.04458639085074917</v>
       </c>
       <c r="C1246" t="n">
         <v>0.9474394634892311</v>
@@ -36619,10 +36619,10 @@
         <v>12.46</v>
       </c>
       <c r="B1248" t="n">
-        <v>0.03857283216285706</v>
+        <v>0.03857283216285712</v>
       </c>
       <c r="C1248" t="n">
-        <v>0.9557751463014523</v>
+        <v>0.9557751463014522</v>
       </c>
       <c r="D1248" t="n">
         <v>-0.02320386775013072</v>
@@ -36735,7 +36735,7 @@
         <v>12.5</v>
       </c>
       <c r="B1252" t="n">
-        <v>0.02760748852589612</v>
+        <v>0.02760748852589606</v>
       </c>
       <c r="C1252" t="n">
         <v>0.9701907906526845</v>
@@ -36764,10 +36764,10 @@
         <v>12.51</v>
       </c>
       <c r="B1253" t="n">
-        <v>0.02509270946423259</v>
+        <v>0.02509270946423264</v>
       </c>
       <c r="C1253" t="n">
-        <v>0.9733188881360547</v>
+        <v>0.9733188881360546</v>
       </c>
       <c r="D1253" t="n">
         <v>-0.04012871822286436</v>
@@ -36793,10 +36793,10 @@
         <v>12.52</v>
       </c>
       <c r="B1254" t="n">
-        <v>0.02267024060968059</v>
+        <v>0.02267024060968065</v>
       </c>
       <c r="C1254" t="n">
-        <v>0.9762548350845602</v>
+        <v>0.9762548350845601</v>
       </c>
       <c r="D1254" t="n">
         <v>-0.04316616317813883</v>
@@ -36822,10 +36822,10 @@
         <v>12.53</v>
       </c>
       <c r="B1255" t="n">
-        <v>0.02034086003082564</v>
+        <v>0.02034086003082558</v>
       </c>
       <c r="C1255" t="n">
-        <v>0.9789978020822343</v>
+        <v>0.9789978020822342</v>
       </c>
       <c r="D1255" t="n">
         <v>-0.04608528668498606</v>
@@ -36996,7 +36996,7 @@
         <v>12.59</v>
       </c>
       <c r="B1261" t="n">
-        <v>0.008358197495276942</v>
+        <v>0.008358197495276887</v>
       </c>
       <c r="C1261" t="n">
         <v>0.9913626415612806</v>
@@ -37025,7 +37025,7 @@
         <v>12.6</v>
       </c>
       <c r="B1262" t="n">
-        <v>0.006699009013356239</v>
+        <v>0.006699009013356294</v>
       </c>
       <c r="C1262" t="n">
         <v>0.9927355764876484</v>
@@ -37199,10 +37199,10 @@
         <v>12.66</v>
       </c>
       <c r="B1268" t="n">
-        <v>-0.001185925427427681</v>
+        <v>-0.001185925427427625</v>
       </c>
       <c r="C1268" t="n">
-        <v>0.9968058956830207</v>
+        <v>0.9968058956830206</v>
       </c>
       <c r="D1268" t="n">
         <v>-0.07288831656167885</v>
@@ -37257,10 +37257,10 @@
         <v>12.68</v>
       </c>
       <c r="B1270" t="n">
-        <v>-0.003017892702832092</v>
+        <v>-0.003017892702832037</v>
       </c>
       <c r="C1270" t="n">
-        <v>0.9965690173390966</v>
+        <v>0.9965690173390965</v>
       </c>
       <c r="D1270" t="n">
         <v>-0.07512427277269876</v>
@@ -37315,7 +37315,7 @@
         <v>12.7</v>
       </c>
       <c r="B1272" t="n">
-        <v>-0.004448871406368515</v>
+        <v>-0.004448871406368571</v>
       </c>
       <c r="C1272" t="n">
         <v>0.9955337432206215</v>
@@ -37373,10 +37373,10 @@
         <v>12.72</v>
       </c>
       <c r="B1274" t="n">
-        <v>-0.005478130904904066</v>
+        <v>-0.005478130904904011</v>
       </c>
       <c r="C1274" t="n">
-        <v>0.9937003291627089</v>
+        <v>0.9937003291627088</v>
       </c>
       <c r="D1274" t="n">
         <v>-0.07805655140001386</v>
@@ -37431,7 +37431,7 @@
         <v>12.74</v>
       </c>
       <c r="B1276" t="n">
-        <v>-0.006105581127300141</v>
+        <v>-0.006105581127300086</v>
       </c>
       <c r="C1276" t="n">
         <v>0.9910698301254739</v>
@@ -37492,7 +37492,7 @@
         <v>-0.006331772214534792</v>
       </c>
       <c r="C1278" t="n">
-        <v>0.9876440993861599</v>
+        <v>0.9876440993861597</v>
       </c>
       <c r="D1278" t="n">
         <v>-0.07893021244299327</v>
@@ -37634,7 +37634,7 @@
         <v>12.81</v>
       </c>
       <c r="B1283" t="n">
-        <v>-0.005151112140519387</v>
+        <v>-0.005151112140519443</v>
       </c>
       <c r="C1283" t="n">
         <v>0.9756199769487779</v>
@@ -37666,7 +37666,7 @@
         <v>-0.0046178646439059</v>
       </c>
       <c r="C1284" t="n">
-        <v>0.9726259824852284</v>
+        <v>0.9726259824852282</v>
       </c>
       <c r="D1284" t="n">
         <v>-0.07639315277329981</v>
@@ -37779,7 +37779,7 @@
         <v>12.86</v>
       </c>
       <c r="B1288" t="n">
-        <v>-0.001507691965868363</v>
+        <v>-0.001507691965868307</v>
       </c>
       <c r="C1288" t="n">
         <v>0.958707427659155</v>
@@ -37808,10 +37808,10 @@
         <v>12.87</v>
       </c>
       <c r="B1289" t="n">
-        <v>-0.0004883705008343897</v>
+        <v>-0.0004883705008344452</v>
       </c>
       <c r="C1289" t="n">
-        <v>0.9547460131370594</v>
+        <v>0.9547460131370593</v>
       </c>
       <c r="D1289" t="n">
         <v>-0.07079612915606349</v>
@@ -37869,7 +37869,7 @@
         <v>0.001836341501530447</v>
       </c>
       <c r="C1291" t="n">
-        <v>0.9462511438626892</v>
+        <v>0.946251143862689</v>
       </c>
       <c r="D1291" t="n">
         <v>-0.06768677747933552</v>
@@ -37895,7 +37895,7 @@
         <v>12.9</v>
       </c>
       <c r="B1292" t="n">
-        <v>0.003140417647535809</v>
+        <v>0.003140417647535865</v>
       </c>
       <c r="C1292" t="n">
         <v>0.9417196205123248</v>
@@ -37924,10 +37924,10 @@
         <v>12.91</v>
       </c>
       <c r="B1293" t="n">
-        <v>0.004538034546116509</v>
+        <v>0.004538034546116565</v>
       </c>
       <c r="C1293" t="n">
-        <v>0.93700007119295</v>
+        <v>0.9370000711929499</v>
       </c>
       <c r="D1293" t="n">
         <v>-0.06408845646754521</v>
@@ -37953,7 +37953,7 @@
         <v>12.92</v>
       </c>
       <c r="B1294" t="n">
-        <v>0.006028440740515784</v>
+        <v>0.006028440740515839</v>
       </c>
       <c r="C1294" t="n">
         <v>0.9320935795517951</v>
@@ -38011,7 +38011,7 @@
         <v>12.94</v>
       </c>
       <c r="B1296" t="n">
-        <v>0.009284429205102362</v>
+        <v>0.009284429205102418</v>
       </c>
       <c r="C1296" t="n">
         <v>0.9217243369196686</v>
@@ -38040,10 +38040,10 @@
         <v>12.95</v>
       </c>
       <c r="B1297" t="n">
-        <v>0.01104832340146344</v>
+        <v>0.01104832340146339</v>
       </c>
       <c r="C1297" t="n">
-        <v>0.9162639853220117</v>
+        <v>0.9162639853220116</v>
       </c>
       <c r="D1297" t="n">
         <v>-0.0554524285882386</v>
@@ -38098,7 +38098,7 @@
         <v>12.97</v>
       </c>
       <c r="B1299" t="n">
-        <v>0.01484341808667028</v>
+        <v>0.01484341808667033</v>
       </c>
       <c r="C1299" t="n">
         <v>0.9047981633754987</v>
@@ -38127,10 +38127,10 @@
         <v>12.98</v>
       </c>
       <c r="B1300" t="n">
-        <v>0.01687271302841648</v>
+        <v>0.01687271302841653</v>
       </c>
       <c r="C1300" t="n">
-        <v>0.8987953656400756</v>
+        <v>0.8987953656400754</v>
       </c>
       <c r="D1300" t="n">
         <v>-0.04774704238546618</v>
@@ -38272,7 +38272,7 @@
         <v>13.03</v>
       </c>
       <c r="B1305" t="n">
-        <v>0.02829537532871851</v>
+        <v>0.02829537532871845</v>
       </c>
       <c r="C1305" t="n">
         <v>0.8661399652570192</v>
@@ -38301,7 +38301,7 @@
         <v>13.04</v>
       </c>
       <c r="B1306" t="n">
-        <v>0.03082737489886966</v>
+        <v>0.03082737489886961</v>
       </c>
       <c r="C1306" t="n">
         <v>0.8590913458654588</v>
@@ -38330,10 +38330,10 @@
         <v>13.05</v>
       </c>
       <c r="B1307" t="n">
-        <v>0.03343911539346794</v>
+        <v>0.033439115393468</v>
       </c>
       <c r="C1307" t="n">
-        <v>0.8518739944189713</v>
+        <v>0.8518739944189712</v>
       </c>
       <c r="D1307" t="n">
         <v>-0.0258639304740379</v>
@@ -38362,7 +38362,7 @@
         <v>0.03612935276420753</v>
       </c>
       <c r="C1308" t="n">
-        <v>0.8444896155231196</v>
+        <v>0.8444896155231194</v>
       </c>
       <c r="D1308" t="n">
         <v>-0.02231114266339974</v>
@@ -38388,7 +38388,7 @@
         <v>13.07</v>
       </c>
       <c r="B1309" t="n">
-        <v>0.03889681056154931</v>
+        <v>0.03889681056154937</v>
       </c>
       <c r="C1309" t="n">
         <v>0.8369399550376837</v>
@@ -38417,10 +38417,10 @@
         <v>13.08</v>
       </c>
       <c r="B1310" t="n">
-        <v>0.04174018036458144</v>
+        <v>0.04174018036458149</v>
       </c>
       <c r="C1310" t="n">
-        <v>0.8292267995998592</v>
+        <v>0.8292267995998591</v>
       </c>
       <c r="D1310" t="n">
         <v>-0.01490028562979789</v>
@@ -38446,7 +38446,7 @@
         <v>13.09</v>
       </c>
       <c r="B1311" t="n">
-        <v>0.04465812222135701</v>
+        <v>0.04465812222135707</v>
       </c>
       <c r="C1311" t="n">
         <v>0.8213519761360981</v>
@@ -38478,7 +38478,7 @@
         <v>0.04764926509956541</v>
       </c>
       <c r="C1312" t="n">
-        <v>0.8133173513627412</v>
+        <v>0.813317351362741</v>
       </c>
       <c r="D1312" t="n">
         <v>-0.007092998688878508</v>
@@ -38504,10 +38504,10 @@
         <v>13.11</v>
       </c>
       <c r="B1313" t="n">
-        <v>0.05071220734739845</v>
+        <v>0.0507122073473984</v>
       </c>
       <c r="C1313" t="n">
-        <v>0.8051248312755831</v>
+        <v>0.805124831275583</v>
       </c>
       <c r="D1313" t="n">
         <v>-0.003044822050038164</v>
@@ -38533,7 +38533,7 @@
         <v>13.12</v>
       </c>
       <c r="B1314" t="n">
-        <v>0.05384551716446884</v>
+        <v>0.05384551716446889</v>
       </c>
       <c r="C1314" t="n">
         <v>0.7967763606285196</v>
@@ -38594,7 +38594,7 @@
         <v>0.06031736445656188</v>
       </c>
       <c r="C1316" t="n">
-        <v>0.779619537257466</v>
+        <v>0.7796195372574659</v>
       </c>
       <c r="D1316" t="n">
         <v>0.009657098375711309</v>
@@ -38707,7 +38707,7 @@
         <v>13.18</v>
       </c>
       <c r="B1320" t="n">
-        <v>0.07403923867578815</v>
+        <v>0.0740392386757881</v>
       </c>
       <c r="C1320" t="n">
         <v>0.7435242284242023</v>
@@ -38852,10 +38852,10 @@
         <v>13.23</v>
       </c>
       <c r="B1325" t="n">
-        <v>0.09251800282281908</v>
+        <v>0.09251800282281902</v>
       </c>
       <c r="C1325" t="n">
-        <v>0.6952437930041676</v>
+        <v>0.6952437930041675</v>
       </c>
       <c r="D1325" t="n">
         <v>0.052342704174516</v>
@@ -38881,7 +38881,7 @@
         <v>13.24</v>
       </c>
       <c r="B1326" t="n">
-        <v>0.09637375379632218</v>
+        <v>0.09637375379632213</v>
       </c>
       <c r="C1326" t="n">
         <v>0.6851889569917045</v>
@@ -38968,7 +38968,7 @@
         <v>13.27</v>
       </c>
       <c r="B1329" t="n">
-        <v>0.1082292416197562</v>
+        <v>0.1082292416197561</v>
       </c>
       <c r="C1329" t="n">
         <v>0.6542697989607831</v>
@@ -39084,7 +39084,7 @@
         <v>13.31</v>
       </c>
       <c r="B1333" t="n">
-        <v>0.1246405357356711</v>
+        <v>0.1246405357356712</v>
       </c>
       <c r="C1333" t="n">
         <v>0.6113759137912774</v>
@@ -39609,7 +39609,7 @@
         <v>0.203806381376075</v>
       </c>
       <c r="C1351" t="n">
-        <v>0.3991222464506491</v>
+        <v>0.399122246450649</v>
       </c>
       <c r="D1351" t="n">
         <v>0.201731483454766</v>
@@ -39783,7 +39783,7 @@
         <v>0.2307403762791901</v>
       </c>
       <c r="C1357" t="n">
-        <v>0.3232643132041515</v>
+        <v>0.3232643132041514</v>
       </c>
       <c r="D1357" t="n">
         <v>0.2385017093733314</v>
@@ -40189,7 +40189,7 @@
         <v>0.2908417289668838</v>
       </c>
       <c r="C1371" t="n">
-        <v>0.141571043364347</v>
+        <v>0.1415710433643469</v>
       </c>
       <c r="D1371" t="n">
         <v>0.3219499667242121</v>
@@ -40244,7 +40244,7 @@
         <v>13.71</v>
       </c>
       <c r="B1373" t="n">
-        <v>0.2988605862435548</v>
+        <v>0.2988605862435547</v>
       </c>
       <c r="C1373" t="n">
         <v>0.1154333932249097</v>
@@ -40273,7 +40273,7 @@
         <v>13.72</v>
       </c>
       <c r="B1374" t="n">
-        <v>0.3027987249588613</v>
+        <v>0.3027987249588612</v>
       </c>
       <c r="C1374" t="n">
         <v>0.1023732604747008</v>
@@ -40302,10 +40302,10 @@
         <v>13.73</v>
       </c>
       <c r="B1375" t="n">
-        <v>0.3066865421756326</v>
+        <v>0.3066865421756325</v>
       </c>
       <c r="C1375" t="n">
-        <v>0.08932293236212592</v>
+        <v>0.08932293236212589</v>
       </c>
       <c r="D1375" t="n">
         <v>0.3444056892477998</v>
@@ -40331,10 +40331,10 @@
         <v>13.74</v>
       </c>
       <c r="B1376" t="n">
-        <v>0.3105219553573138</v>
+        <v>0.3105219553573137</v>
       </c>
       <c r="C1376" t="n">
-        <v>0.07628540766719419</v>
+        <v>0.0762854076671942</v>
       </c>
       <c r="D1376" t="n">
         <v>0.349880704520714</v>
@@ -40363,7 +40363,7 @@
         <v>0.3143028937282376</v>
       </c>
       <c r="C1377" t="n">
-        <v>0.06326367736905569</v>
+        <v>0.06326367736905567</v>
       </c>
       <c r="D1377" t="n">
         <v>0.3552948579865655</v>
@@ -40566,7 +40566,7 @@
         <v>0.3390730201448834</v>
       </c>
       <c r="C1384" t="n">
-        <v>-0.02719695811917722</v>
+        <v>-0.02719695811917719</v>
       </c>
       <c r="D1384" t="n">
         <v>0.3912711109139185</v>
@@ -40621,10 +40621,10 @@
         <v>13.84</v>
       </c>
       <c r="B1386" t="n">
-        <v>0.3455450280318745</v>
+        <v>0.3455450280318744</v>
       </c>
       <c r="C1386" t="n">
-        <v>-0.05273252819602728</v>
+        <v>-0.05273252819602725</v>
       </c>
       <c r="D1386" t="n">
         <v>0.4008552316773185</v>
@@ -41288,10 +41288,10 @@
         <v>14.07</v>
       </c>
       <c r="B1409" t="n">
-        <v>0.3950150308854263</v>
+        <v>0.3950150308854262</v>
       </c>
       <c r="C1409" t="n">
-        <v>-0.3278985811411545</v>
+        <v>-0.3278985811411544</v>
       </c>
       <c r="D1409" t="n">
         <v>0.4815897760531005</v>
@@ -41523,7 +41523,7 @@
         <v>0.3992925984059286</v>
       </c>
       <c r="C1417" t="n">
-        <v>-0.4121253050142453</v>
+        <v>-0.4121253050142454</v>
       </c>
       <c r="D1417" t="n">
         <v>0.4941051532354467</v>
@@ -41694,10 +41694,10 @@
         <v>14.21</v>
       </c>
       <c r="B1423" t="n">
-        <v>0.3974508821571017</v>
+        <v>0.3974508821571018</v>
       </c>
       <c r="C1423" t="n">
-        <v>-0.4702195657114218</v>
+        <v>-0.4702195657114219</v>
       </c>
       <c r="D1423" t="n">
         <v>0.4973160411491882</v>
@@ -41781,10 +41781,10 @@
         <v>14.24</v>
       </c>
       <c r="B1426" t="n">
-        <v>0.3948339791318072</v>
+        <v>0.3948339791318071</v>
       </c>
       <c r="C1426" t="n">
-        <v>-0.4974858967176197</v>
+        <v>-0.4974858967176196</v>
       </c>
       <c r="D1426" t="n">
         <v>0.4968344129490372</v>
@@ -41842,7 +41842,7 @@
         <v>0.3924470411749704</v>
       </c>
       <c r="C1428" t="n">
-        <v>-0.5149714495713934</v>
+        <v>-0.5149714495713933</v>
       </c>
       <c r="D1428" t="n">
         <v>0.4957198679507002</v>
@@ -41984,10 +41984,10 @@
         <v>14.31</v>
       </c>
       <c r="B1433" t="n">
-        <v>0.3841956306887642</v>
+        <v>0.3841956306887641</v>
       </c>
       <c r="C1433" t="n">
-        <v>-0.5561695167157791</v>
+        <v>-0.556169516715779</v>
       </c>
       <c r="D1433" t="n">
         <v>0.4901024668994421</v>
@@ -42132,7 +42132,7 @@
         <v>0.372634976906084</v>
       </c>
       <c r="C1438" t="n">
-        <v>-0.5936284954108901</v>
+        <v>-0.59362849541089</v>
       </c>
       <c r="D1438" t="n">
         <v>0.4803669029213166</v>
@@ -42335,7 +42335,7 @@
         <v>0.3508274034780769</v>
       </c>
       <c r="C1445" t="n">
-        <v>-0.639493238682134</v>
+        <v>-0.6394932386821339</v>
       </c>
       <c r="D1445" t="n">
         <v>0.4597007009182985</v>
@@ -42448,7 +42448,7 @@
         <v>14.47</v>
       </c>
       <c r="B1449" t="n">
-        <v>0.3354157283469932</v>
+        <v>0.3354157283469931</v>
       </c>
       <c r="C1449" t="n">
         <v>-0.6621376463666756</v>
@@ -42509,7 +42509,7 @@
         <v>0.3269092050637713</v>
       </c>
       <c r="C1451" t="n">
-        <v>-0.6724669310468384</v>
+        <v>-0.6724669310468383</v>
       </c>
       <c r="D1451" t="n">
         <v>0.4354076009284693</v>
@@ -42741,7 +42741,7 @@
         <v>0.2876156513458599</v>
       </c>
       <c r="C1459" t="n">
-        <v>-0.7070599308402719</v>
+        <v>-0.7070599308402717</v>
       </c>
       <c r="D1459" t="n">
         <v>0.3936298766438733</v>
@@ -42854,7 +42854,7 @@
         <v>14.61</v>
       </c>
       <c r="B1463" t="n">
-        <v>0.264872392405466</v>
+        <v>0.2648723924054661</v>
       </c>
       <c r="C1463" t="n">
         <v>-0.7202827223494843</v>
@@ -43028,10 +43028,10 @@
         <v>14.67</v>
       </c>
       <c r="B1469" t="n">
-        <v>0.2270281779613399</v>
+        <v>0.2270281779613398</v>
       </c>
       <c r="C1469" t="n">
-        <v>-0.7350038703396179</v>
+        <v>-0.7350038703396178</v>
       </c>
       <c r="D1469" t="n">
         <v>0.3267326693470023</v>
@@ -43089,7 +43089,7 @@
         <v>0.2134507996886233</v>
       </c>
       <c r="C1471" t="n">
-        <v>-0.738551179926409</v>
+        <v>-0.7385511799264088</v>
       </c>
       <c r="D1471" t="n">
         <v>0.3114700807544794</v>
@@ -43202,7 +43202,7 @@
         <v>14.73</v>
       </c>
       <c r="B1475" t="n">
-        <v>0.1849077462216188</v>
+        <v>0.1849077462216187</v>
       </c>
       <c r="C1475" t="n">
         <v>-0.7436206370895131</v>
@@ -43234,7 +43234,7 @@
         <v>0.177490281991405</v>
       </c>
       <c r="C1476" t="n">
-        <v>-0.7444687106517464</v>
+        <v>-0.7444687106517462</v>
       </c>
       <c r="D1476" t="n">
         <v>0.2706911088980702</v>
@@ -43408,7 +43408,7 @@
         <v>0.1307283594853009</v>
       </c>
       <c r="C1482" t="n">
-        <v>-0.7460808424400217</v>
+        <v>-0.7460808424400216</v>
       </c>
       <c r="D1482" t="n">
         <v>0.2170314951261919</v>
@@ -43550,10 +43550,10 @@
         <v>14.85</v>
       </c>
       <c r="B1487" t="n">
-        <v>0.08897689328546748</v>
+        <v>0.08897689328546743</v>
       </c>
       <c r="C1487" t="n">
-        <v>-0.7429565293744962</v>
+        <v>-0.7429565293744961</v>
       </c>
       <c r="D1487" t="n">
         <v>0.1686362785497196</v>
@@ -43579,10 +43579,10 @@
         <v>14.86</v>
       </c>
       <c r="B1488" t="n">
-        <v>0.08034322926660264</v>
+        <v>0.08034322926660259</v>
       </c>
       <c r="C1488" t="n">
-        <v>-0.7418551620780015</v>
+        <v>-0.7418551620780014</v>
       </c>
       <c r="D1488" t="n">
         <v>0.1585794762459717</v>
@@ -43695,7 +43695,7 @@
         <v>14.9</v>
       </c>
       <c r="B1492" t="n">
-        <v>0.04492493035932821</v>
+        <v>0.04492493035932826</v>
       </c>
       <c r="C1492" t="n">
         <v>-0.735897111078454</v>
@@ -43782,7 +43782,7 @@
         <v>14.93</v>
       </c>
       <c r="B1495" t="n">
-        <v>0.01748758838451764</v>
+        <v>0.01748758838451758</v>
       </c>
       <c r="C1495" t="n">
         <v>-0.7298320426075977</v>
@@ -43898,10 +43898,10 @@
         <v>14.97</v>
       </c>
       <c r="B1499" t="n">
-        <v>-0.02015611781333931</v>
+        <v>-0.02015611781333926</v>
       </c>
       <c r="C1499" t="n">
-        <v>-0.7196842520822806</v>
+        <v>-0.7196842520822805</v>
       </c>
       <c r="D1499" t="n">
         <v>0.04047477870966529</v>
@@ -44043,7 +44043,7 @@
         <v>15.02</v>
       </c>
       <c r="B1504" t="n">
-        <v>-0.06872180569534819</v>
+        <v>-0.06872180569534814</v>
       </c>
       <c r="C1504" t="n">
         <v>-0.7038190644154492</v>
@@ -44130,7 +44130,7 @@
         <v>15.05</v>
       </c>
       <c r="B1507" t="n">
-        <v>-0.09855898540978003</v>
+        <v>-0.09855898540977998</v>
       </c>
       <c r="C1507" t="n">
         <v>-0.692680361414753</v>
@@ -44188,10 +44188,10 @@
         <v>15.07</v>
       </c>
       <c r="B1509" t="n">
-        <v>-0.1187021452385507</v>
+        <v>-0.1187021452385506</v>
       </c>
       <c r="C1509" t="n">
-        <v>-0.6846082752436562</v>
+        <v>-0.6846082752436561</v>
       </c>
       <c r="D1509" t="n">
         <v>-0.07687014865867224</v>
@@ -44275,7 +44275,7 @@
         <v>15.1</v>
       </c>
       <c r="B1512" t="n">
-        <v>-0.1492460956924359</v>
+        <v>-0.1492460956924358</v>
       </c>
       <c r="C1512" t="n">
         <v>-0.6715669988002324</v>
@@ -44391,7 +44391,7 @@
         <v>15.14</v>
       </c>
       <c r="B1516" t="n">
-        <v>-0.1904817057206045</v>
+        <v>-0.1904817057206046</v>
       </c>
       <c r="C1516" t="n">
         <v>-0.6525166083523901</v>
@@ -44420,7 +44420,7 @@
         <v>15.15</v>
       </c>
       <c r="B1517" t="n">
-        <v>-0.2008648828456214</v>
+        <v>-0.2008648828456213</v>
       </c>
       <c r="C1517" t="n">
         <v>-0.6474703540501475</v>
@@ -44452,7 +44452,7 @@
         <v>-0.2112726327081923</v>
       </c>
       <c r="C1518" t="n">
-        <v>-0.6423146941936052</v>
+        <v>-0.6423146941936051</v>
       </c>
       <c r="D1518" t="n">
         <v>-0.1882314178387997</v>
@@ -44507,7 +44507,7 @@
         <v>15.18</v>
       </c>
       <c r="B1520" t="n">
-        <v>-0.232151447296308</v>
+        <v>-0.2321514472963079</v>
       </c>
       <c r="C1520" t="n">
         <v>-0.6316834688845443</v>
@@ -44623,10 +44623,10 @@
         <v>15.22</v>
       </c>
       <c r="B1524" t="n">
-        <v>-0.2740887064389814</v>
+        <v>-0.2740887064389813</v>
       </c>
       <c r="C1524" t="n">
-        <v>-0.6092008602587942</v>
+        <v>-0.6092008602587941</v>
       </c>
       <c r="D1524" t="n">
         <v>-0.2643556768824368</v>
@@ -44684,7 +44684,7 @@
         <v>-0.2951046121375042</v>
       </c>
       <c r="C1526" t="n">
-        <v>-0.5973842341973239</v>
+        <v>-0.5973842341973238</v>
       </c>
       <c r="D1526" t="n">
         <v>-0.2899196751050319</v>
@@ -44855,10 +44855,10 @@
         <v>15.3</v>
       </c>
       <c r="B1532" t="n">
-        <v>-0.3580826203503715</v>
+        <v>-0.3580826203503714</v>
       </c>
       <c r="C1532" t="n">
-        <v>-0.5598481600639218</v>
+        <v>-0.5598481600639217</v>
       </c>
       <c r="D1532" t="n">
         <v>-0.3668080045263257</v>
@@ -44887,7 +44887,7 @@
         <v>-0.3685401959687253</v>
       </c>
       <c r="C1533" t="n">
-        <v>-0.553312027897225</v>
+        <v>-0.5533120278972249</v>
       </c>
       <c r="D1533" t="n">
         <v>-0.3796159983052805</v>
@@ -44913,7 +44913,7 @@
         <v>15.32</v>
       </c>
       <c r="B1534" t="n">
-        <v>-0.3789793944418914</v>
+        <v>-0.3789793944418913</v>
       </c>
       <c r="C1534" t="n">
         <v>-0.5467020884215368</v>
@@ -44974,7 +44974,7 @@
         <v>-0.3997916619613949</v>
       </c>
       <c r="C1536" t="n">
-        <v>-0.5332702631002781</v>
+        <v>-0.533270263100278</v>
       </c>
       <c r="D1536" t="n">
         <v>-0.4179604757460765</v>
@@ -45087,7 +45087,7 @@
         <v>15.38</v>
       </c>
       <c r="B1540" t="n">
-        <v>-0.4410745740774453</v>
+        <v>-0.4410745740774452</v>
       </c>
       <c r="C1540" t="n">
         <v>-0.5056257955941043</v>
@@ -45119,7 +45119,7 @@
         <v>-0.4513080588232816</v>
       </c>
       <c r="C1541" t="n">
-        <v>-0.4985660777671332</v>
+        <v>-0.4985660777671331</v>
       </c>
       <c r="D1541" t="n">
         <v>-0.4813974385349209</v>
@@ -45232,7 +45232,7 @@
         <v>15.43</v>
       </c>
       <c r="B1545" t="n">
-        <v>-0.4918104680336348</v>
+        <v>-0.4918104680336349</v>
       </c>
       <c r="C1545" t="n">
         <v>-0.4698058389332881</v>
@@ -45261,7 +45261,7 @@
         <v>15.44</v>
       </c>
       <c r="B1546" t="n">
-        <v>-0.501814467194618</v>
+        <v>-0.5018144671946179</v>
       </c>
       <c r="C1546" t="n">
         <v>-0.4624976902679497</v>
@@ -45319,10 +45319,10 @@
         <v>15.46</v>
       </c>
       <c r="B1548" t="n">
-        <v>-0.5216574028330367</v>
+        <v>-0.5216574028330366</v>
       </c>
       <c r="C1548" t="n">
-        <v>-0.4477569044445125</v>
+        <v>-0.4477569044445124</v>
       </c>
       <c r="D1548" t="n">
         <v>-0.5684996931281757</v>
@@ -45493,7 +45493,7 @@
         <v>15.52</v>
       </c>
       <c r="B1554" t="n">
-        <v>-0.5796705408860426</v>
+        <v>-0.5796705408860425</v>
       </c>
       <c r="C1554" t="n">
         <v>-0.4027163121174996</v>
@@ -45609,7 +45609,7 @@
         <v>15.56</v>
       </c>
       <c r="B1558" t="n">
-        <v>-0.6168686305643691</v>
+        <v>-0.616868630564369</v>
       </c>
       <c r="C1558" t="n">
         <v>-0.3722047617476241</v>
@@ -45699,7 +45699,7 @@
         <v>-0.6438718417271774</v>
       </c>
       <c r="C1561" t="n">
-        <v>-0.3491785564254758</v>
+        <v>-0.3491785564254757</v>
       </c>
       <c r="D1561" t="n">
         <v>-0.7212714941546344</v>
@@ -45902,7 +45902,7 @@
         <v>-0.7034778187926563</v>
       </c>
       <c r="C1568" t="n">
-        <v>-0.2953721641619948</v>
+        <v>-0.2953721641619947</v>
       </c>
       <c r="D1568" t="n">
         <v>-0.7965927103262166</v>
@@ -45931,7 +45931,7 @@
         <v>-0.7115678121530533</v>
       </c>
       <c r="C1569" t="n">
-        <v>-0.2877116695313332</v>
+        <v>-0.2877116695313331</v>
       </c>
       <c r="D1569" t="n">
         <v>-0.806866191185777</v>
@@ -45986,7 +45986,7 @@
         <v>15.69</v>
       </c>
       <c r="B1571" t="n">
-        <v>-0.7274048177848402</v>
+        <v>-0.7274048177848401</v>
       </c>
       <c r="C1571" t="n">
         <v>-0.2724338470558155</v>
@@ -46073,10 +46073,10 @@
         <v>15.72</v>
       </c>
       <c r="B1574" t="n">
-        <v>-0.7502678504958995</v>
+        <v>-0.7502678504958994</v>
       </c>
       <c r="C1574" t="n">
-        <v>-0.2496597089194897</v>
+        <v>-0.2496597089194896</v>
       </c>
       <c r="D1574" t="n">
         <v>-0.8562090262655284</v>
@@ -46163,7 +46163,7 @@
         <v>-0.7720052806066731</v>
       </c>
       <c r="C1577" t="n">
-        <v>-0.227111306073061</v>
+        <v>-0.2271113060730609</v>
       </c>
       <c r="D1577" t="n">
         <v>-0.8840886692407558</v>
@@ -46189,10 +46189,10 @@
         <v>15.76</v>
       </c>
       <c r="B1578" t="n">
-        <v>-0.7789906214408779</v>
+        <v>-0.7789906214408778</v>
       </c>
       <c r="C1578" t="n">
-        <v>-0.2196557733026547</v>
+        <v>-0.2196557733026546</v>
       </c>
       <c r="D1578" t="n">
         <v>-0.8930769435632298</v>
@@ -46250,7 +46250,7 @@
         <v>-0.7925577006036459</v>
       </c>
       <c r="C1580" t="n">
-        <v>-0.2048487758507676</v>
+        <v>-0.2048487758507675</v>
       </c>
       <c r="D1580" t="n">
         <v>-0.9105793702658617</v>
@@ -46537,7 +46537,7 @@
         <v>15.88</v>
       </c>
       <c r="B1590" t="n">
-        <v>-0.8517946413626164</v>
+        <v>-0.8517946413626163</v>
       </c>
       <c r="C1590" t="n">
         <v>-0.1334435024335411</v>
@@ -46566,7 +46566,7 @@
         <v>15.89</v>
       </c>
       <c r="B1591" t="n">
-        <v>-0.8568846734345172</v>
+        <v>-0.8568846734345171</v>
       </c>
       <c r="C1591" t="n">
         <v>-0.1265923437078302</v>
@@ -46627,7 +46627,7 @@
         <v>-0.8665869286229921</v>
       </c>
       <c r="C1593" t="n">
-        <v>-0.1130729805110804</v>
+        <v>-0.1130729805110805</v>
       </c>
       <c r="D1593" t="n">
         <v>-1.007580309566288</v>
@@ -46653,10 +46653,10 @@
         <v>15.92</v>
       </c>
       <c r="B1594" t="n">
-        <v>-0.8711958594376989</v>
+        <v>-0.8711958594376988</v>
       </c>
       <c r="C1594" t="n">
-        <v>-0.1064084500495292</v>
+        <v>-0.1064084500495293</v>
       </c>
       <c r="D1594" t="n">
         <v>-1.013747392223268</v>
@@ -46714,7 +46714,7 @@
         <v>-0.8799213870161003</v>
       </c>
       <c r="C1596" t="n">
-        <v>-0.09327865966272697</v>
+        <v>-0.09327865966272686</v>
       </c>
       <c r="D1596" t="n">
         <v>-1.025490934309976</v>
@@ -46798,10 +46798,10 @@
         <v>15.97</v>
       </c>
       <c r="B1599" t="n">
-        <v>-0.8917562094720187</v>
+        <v>-0.8917562094720186</v>
       </c>
       <c r="C1599" t="n">
-        <v>-0.07410816039858426</v>
+        <v>-0.07410816039858431</v>
       </c>
       <c r="D1599" t="n">
         <v>-1.041599414289025</v>
@@ -46856,10 +46856,10 @@
         <v>15.99</v>
       </c>
       <c r="B1601" t="n">
-        <v>-0.8987937869611856</v>
+        <v>-0.8987937869611857</v>
       </c>
       <c r="C1601" t="n">
-        <v>-0.06169679597021072</v>
+        <v>-0.06169679597021077</v>
       </c>
       <c r="D1601" t="n">
         <v>-1.05131144760143</v>
@@ -46885,10 +46885,10 @@
         <v>16</v>
       </c>
       <c r="B1602" t="n">
-        <v>-0.9020528490304324</v>
+        <v>-0.9020528490304323</v>
       </c>
       <c r="C1602" t="n">
-        <v>-0.05560663129295229</v>
+        <v>-0.05560663129295235</v>
       </c>
       <c r="D1602" t="n">
         <v>-1.055853920986408</v>
@@ -46946,7 +46946,7 @@
         <v>-0.9080452162497816</v>
       </c>
       <c r="C1604" t="n">
-        <v>-0.04366505609196014</v>
+        <v>-0.04366505609196009</v>
       </c>
       <c r="D1604" t="n">
         <v>-1.064303201202384</v>
@@ -46975,7 +46975,7 @@
         <v>-0.9107761288336935</v>
       </c>
       <c r="C1605" t="n">
-        <v>-0.03781663305025695</v>
+        <v>-0.03781663305025701</v>
       </c>
       <c r="D1605" t="n">
         <v>-1.068206733700769</v>
@@ -47033,7 +47033,7 @@
         <v>-0.9157017573507142</v>
       </c>
       <c r="C1607" t="n">
-        <v>-0.02637172939478089</v>
+        <v>-0.02637172939478094</v>
       </c>
       <c r="D1607" t="n">
         <v>-1.075363798264903</v>
@@ -47120,7 +47120,7 @@
         <v>-0.9217340717485831</v>
       </c>
       <c r="C1610" t="n">
-        <v>-0.009854826850647314</v>
+        <v>-0.009854826850647258</v>
       </c>
       <c r="D1610" t="n">
         <v>-1.084452668362428</v>
@@ -47320,10 +47320,10 @@
         <v>16.15</v>
       </c>
       <c r="B1617" t="n">
-        <v>-0.9293555116150249</v>
+        <v>-0.9293555116150248</v>
       </c>
       <c r="C1617" t="n">
-        <v>0.02547324893538377</v>
+        <v>0.02547324893538383</v>
       </c>
       <c r="D1617" t="n">
         <v>-1.097797895080361</v>
@@ -47352,7 +47352,7 @@
         <v>-0.9296957563169097</v>
       </c>
       <c r="C1618" t="n">
-        <v>0.0301364292477117</v>
+        <v>0.03013642924771165</v>
       </c>
       <c r="D1618" t="n">
         <v>-1.098789953931371</v>
@@ -47407,7 +47407,7 @@
         <v>16.18</v>
       </c>
       <c r="B1620" t="n">
-        <v>-0.9298089125985647</v>
+        <v>-0.9298089125985645</v>
       </c>
       <c r="C1620" t="n">
         <v>0.03916488101407906</v>
@@ -47465,10 +47465,10 @@
         <v>16.2</v>
       </c>
       <c r="B1622" t="n">
-        <v>-0.9291626198713849</v>
+        <v>-0.9291626198713848</v>
       </c>
       <c r="C1622" t="n">
-        <v>0.04779012950915024</v>
+        <v>0.04779012950915029</v>
       </c>
       <c r="D1622" t="n">
         <v>-1.100437629602492</v>
@@ -47523,10 +47523,10 @@
         <v>16.22</v>
       </c>
       <c r="B1624" t="n">
-        <v>-0.9277539454870631</v>
+        <v>-0.927753945487063</v>
       </c>
       <c r="C1624" t="n">
-        <v>0.05600553359174759</v>
+        <v>0.05600553359174754</v>
       </c>
       <c r="D1624" t="n">
         <v>-1.099859944929991</v>
@@ -47555,7 +47555,7 @@
         <v>-0.9267630101798074</v>
       </c>
       <c r="C1625" t="n">
-        <v>0.0599576414814858</v>
+        <v>0.05995764148148586</v>
       </c>
       <c r="D1625" t="n">
         <v>-1.099218846463338</v>
@@ -47584,7 +47584,7 @@
         <v>-0.9255807305677008</v>
       </c>
       <c r="C1626" t="n">
-        <v>0.06380508488090741</v>
+        <v>0.06380508488090736</v>
       </c>
       <c r="D1626" t="n">
         <v>-1.098342357656415</v>
@@ -47610,7 +47610,7 @@
         <v>16.25</v>
       </c>
       <c r="B1627" t="n">
-        <v>-0.924206958370225</v>
+        <v>-0.9242069583702248</v>
       </c>
       <c r="C1627" t="n">
         <v>0.06754721254138257</v>
@@ -47642,7 +47642,7 @@
         <v>-0.9226415941358015</v>
       </c>
       <c r="C1628" t="n">
-        <v>0.07118341342561418</v>
+        <v>0.07118341342561429</v>
       </c>
       <c r="D1628" t="n">
         <v>-1.095881916174619</v>
@@ -47668,10 +47668,10 @@
         <v>16.27</v>
       </c>
       <c r="B1629" t="n">
-        <v>-0.9208845873227884</v>
+        <v>-0.9208845873227883</v>
       </c>
       <c r="C1629" t="n">
-        <v>0.07471311683977927</v>
+        <v>0.07471311683977921</v>
       </c>
       <c r="D1629" t="n">
         <v>-1.094297470131654</v>
@@ -47700,7 +47700,7 @@
         <v>-0.9189359363666505</v>
       </c>
       <c r="C1630" t="n">
-        <v>0.07813579255272912</v>
+        <v>0.07813579255272907</v>
       </c>
       <c r="D1630" t="n">
         <v>-1.0924766473041</v>
@@ -47726,10 +47726,10 @@
         <v>16.29</v>
       </c>
       <c r="B1631" t="n">
-        <v>-0.9167956887332986</v>
+        <v>-0.9167956887332985</v>
       </c>
       <c r="C1631" t="n">
-        <v>0.08145095090217996</v>
+        <v>0.08145095090217991</v>
       </c>
       <c r="D1631" t="n">
         <v>-1.09041935468958</v>
@@ -47755,10 +47755,10 @@
         <v>16.3</v>
       </c>
       <c r="B1632" t="n">
-        <v>-0.9144639409585557</v>
+        <v>-0.9144639409585558</v>
       </c>
       <c r="C1632" t="n">
-        <v>0.08465814288790652</v>
+        <v>0.08465814288790657</v>
       </c>
       <c r="D1632" t="n">
         <v>-1.088125560959972</v>
@@ -47787,7 +47787,7 @@
         <v>-0.9119408386737546</v>
       </c>
       <c r="C1633" t="n">
-        <v>0.08775696025187762</v>
+        <v>0.08775696025187768</v>
       </c>
       <c r="D1633" t="n">
         <v>-1.085595296546146</v>
@@ -47871,10 +47871,10 @@
         <v>16.34</v>
       </c>
       <c r="B1636" t="n">
-        <v>-0.9032255976532684</v>
+        <v>-0.9032255976532683</v>
       </c>
       <c r="C1636" t="n">
-        <v>0.09639969448327462</v>
+        <v>0.09639969448327457</v>
       </c>
       <c r="D1636" t="n">
         <v>-1.076586911179895</v>
@@ -47900,10 +47900,10 @@
         <v>16.35</v>
       </c>
       <c r="B1637" t="n">
-        <v>-0.8999395156691659</v>
+        <v>-0.8999395156691657</v>
       </c>
       <c r="C1637" t="n">
-        <v>0.09906174769738113</v>
+        <v>0.09906174769738119</v>
       </c>
       <c r="D1637" t="n">
         <v>-1.073112305498186</v>
@@ -47961,7 +47961,7 @@
         <v>-0.8927981216703851</v>
       </c>
       <c r="C1639" t="n">
-        <v>0.1040562826060129</v>
+        <v>0.1040562826060128</v>
       </c>
       <c r="D1639" t="n">
         <v>-1.065457324678545</v>
@@ -47987,10 +47987,10 @@
         <v>16.38</v>
       </c>
       <c r="B1640" t="n">
-        <v>-0.8889437384679086</v>
+        <v>-0.8889437384679085</v>
       </c>
       <c r="C1640" t="n">
-        <v>0.1063884795299624</v>
+        <v>0.1063884795299623</v>
       </c>
       <c r="D1640" t="n">
         <v>-1.061277814955086</v>
@@ -48045,7 +48045,7 @@
         <v>16.4</v>
       </c>
       <c r="B1642" t="n">
-        <v>-0.8806702878006647</v>
+        <v>-0.8806702878006646</v>
       </c>
       <c r="C1642" t="n">
         <v>0.1107223272585929</v>
@@ -48077,7 +48077,7 @@
         <v>-0.8762524416212312</v>
       </c>
       <c r="C1643" t="n">
-        <v>0.1127239386292745</v>
+        <v>0.1127239386292744</v>
       </c>
       <c r="D1643" t="n">
         <v>-1.047337698736984</v>
@@ -48132,10 +48132,10 @@
         <v>16.43</v>
       </c>
       <c r="B1645" t="n">
-        <v>-0.8668579244117387</v>
+        <v>-0.8668579244117386</v>
       </c>
       <c r="C1645" t="n">
-        <v>0.1163967435865291</v>
+        <v>0.1163967435865292</v>
       </c>
       <c r="D1645" t="n">
         <v>-1.036882940160539</v>
@@ -48190,7 +48190,7 @@
         <v>16.45</v>
       </c>
       <c r="B1647" t="n">
-        <v>-0.8567234261612106</v>
+        <v>-0.8567234261612104</v>
       </c>
       <c r="C1647" t="n">
         <v>0.1196297419690627</v>
@@ -48306,7 +48306,7 @@
         <v>16.49</v>
       </c>
       <c r="B1651" t="n">
-        <v>-0.8342625039185414</v>
+        <v>-0.8342625039185413</v>
       </c>
       <c r="C1651" t="n">
         <v>0.1247828311826459</v>
@@ -48335,7 +48335,7 @@
         <v>16.5</v>
       </c>
       <c r="B1652" t="n">
-        <v>-0.8281963527272455</v>
+        <v>-0.8281963527272453</v>
       </c>
       <c r="C1652" t="n">
         <v>0.1257992952245319</v>
@@ -48422,10 +48422,10 @@
         <v>16.53</v>
       </c>
       <c r="B1655" t="n">
-        <v>-0.808933285343463</v>
+        <v>-0.8089332853434629</v>
       </c>
       <c r="C1655" t="n">
-        <v>0.1282026401926034</v>
+        <v>0.1282026401926033</v>
       </c>
       <c r="D1655" t="n">
         <v>-0.9709455940040436</v>
@@ -48741,7 +48741,7 @@
         <v>16.64</v>
       </c>
       <c r="B1666" t="n">
-        <v>-0.7251465977745667</v>
+        <v>-0.7251465977745666</v>
       </c>
       <c r="C1666" t="n">
         <v>0.1289465393749943</v>
@@ -48828,10 +48828,10 @@
         <v>16.67</v>
       </c>
       <c r="B1669" t="n">
-        <v>-0.6988883110091679</v>
+        <v>-0.6988883110091678</v>
       </c>
       <c r="C1669" t="n">
-        <v>0.1270379870658603</v>
+        <v>0.1270379870658602</v>
       </c>
       <c r="D1669" t="n">
         <v>-0.8423292695902588</v>
@@ -48976,7 +48976,7 @@
         <v>-0.6521011257474492</v>
       </c>
       <c r="C1674" t="n">
-        <v>0.1219662758929287</v>
+        <v>0.1219662758929286</v>
       </c>
       <c r="D1674" t="n">
         <v>-0.7869511515224977</v>
@@ -49179,7 +49179,7 @@
         <v>-0.580672144120371</v>
       </c>
       <c r="C1681" t="n">
-        <v>0.1111410680377132</v>
+        <v>0.1111410680377133</v>
       </c>
       <c r="D1681" t="n">
         <v>-0.7018995736280538</v>
@@ -49382,7 +49382,7 @@
         <v>-0.5030146797593686</v>
       </c>
       <c r="C1688" t="n">
-        <v>0.096387140421381</v>
+        <v>0.09638714042138102</v>
       </c>
       <c r="D1688" t="n">
         <v>-0.608904238144137</v>
@@ -49440,7 +49440,7 @@
         <v>-0.4797974862595759</v>
       </c>
       <c r="C1690" t="n">
-        <v>0.09152193213664012</v>
+        <v>0.09152193213664014</v>
       </c>
       <c r="D1690" t="n">
         <v>-0.5810150352970048</v>
@@ -49469,7 +49469,7 @@
         <v>-0.4680299358858498</v>
       </c>
       <c r="C1691" t="n">
-        <v>0.08898907500768627</v>
+        <v>0.0889890750076863</v>
       </c>
       <c r="D1691" t="n">
         <v>-0.5668660382719882</v>
@@ -49614,7 +49614,7 @@
         <v>-0.4077077079593839</v>
       </c>
       <c r="C1696" t="n">
-        <v>0.07539026991352041</v>
+        <v>0.07539026991352038</v>
       </c>
       <c r="D1696" t="n">
         <v>-0.4942064021021568</v>
@@ -49846,7 +49846,7 @@
         <v>-0.3067075624417139</v>
       </c>
       <c r="C1704" t="n">
-        <v>0.05082592322323473</v>
+        <v>0.0508259232232347</v>
       </c>
       <c r="D1704" t="n">
         <v>-0.372130753889473</v>
@@ -50049,7 +50049,7 @@
         <v>-0.2147986554586143</v>
       </c>
       <c r="C1711" t="n">
-        <v>0.02715798867416414</v>
+        <v>0.02715798867416415</v>
       </c>
       <c r="D1711" t="n">
         <v>-0.2606713981782758</v>
@@ -50078,7 +50078,7 @@
         <v>-0.2014621990285149</v>
       </c>
       <c r="C1712" t="n">
-        <v>0.02365312790539925</v>
+        <v>0.02365312790539922</v>
       </c>
       <c r="D1712" t="n">
         <v>-0.2444728699484441</v>
@@ -50252,7 +50252,7 @@
         <v>-0.1206540126456523</v>
       </c>
       <c r="C1718" t="n">
-        <v>0.002173382186090263</v>
+        <v>0.002173382186090256</v>
       </c>
       <c r="D1718" t="n">
         <v>-0.1462031018446347</v>
@@ -50365,10 +50365,10 @@
         <v>17.2</v>
       </c>
       <c r="B1722" t="n">
-        <v>-0.0662542411778923</v>
+        <v>-0.06625424117789229</v>
       </c>
       <c r="C1722" t="n">
-        <v>-0.01242395355394785</v>
+        <v>-0.01242395355394786</v>
       </c>
       <c r="D1722" t="n">
         <v>-0.07994382245186844</v>
@@ -50510,7 +50510,7 @@
         <v>17.25</v>
       </c>
       <c r="B1727" t="n">
-        <v>0.001992369533579874</v>
+        <v>0.001992369533579876</v>
       </c>
       <c r="C1727" t="n">
         <v>-0.03074799986276704</v>
@@ -50542,7 +50542,7 @@
         <v>0.01564366042881321</v>
       </c>
       <c r="C1728" t="n">
-        <v>-0.0344021548717839</v>
+        <v>-0.03440215487178389</v>
       </c>
       <c r="D1728" t="n">
         <v>0.01994416077158174</v>
@@ -50861,7 +50861,7 @@
         <v>0.1646958953811412</v>
       </c>
       <c r="C1739" t="n">
-        <v>-0.07358203063882449</v>
+        <v>-0.07358203063882447</v>
       </c>
       <c r="D1739" t="n">
         <v>0.2020735815382275</v>
@@ -50948,7 +50948,7 @@
         <v>0.2046710469467705</v>
       </c>
       <c r="C1742" t="n">
-        <v>-0.08372744701829284</v>
+        <v>-0.08372744701829285</v>
       </c>
       <c r="D1742" t="n">
         <v>0.2509767005919831</v>
@@ -51093,7 +51093,7 @@
         <v>0.2702708216719901</v>
       </c>
       <c r="C1747" t="n">
-        <v>-0.09986607854565278</v>
+        <v>-0.09986607854565281</v>
       </c>
       <c r="D1747" t="n">
         <v>0.3312642995417157</v>
@@ -51786,10 +51786,10 @@
         <v>17.69</v>
       </c>
       <c r="B1771" t="n">
-        <v>0.556752089957569</v>
+        <v>0.5567520899575689</v>
       </c>
       <c r="C1771" t="n">
-        <v>-0.1570054674268832</v>
+        <v>-0.1570054674268831</v>
       </c>
       <c r="D1771" t="n">
         <v>0.6819715196425713</v>
@@ -52134,10 +52134,10 @@
         <v>17.81</v>
       </c>
       <c r="B1783" t="n">
-        <v>0.6747635244179353</v>
+        <v>0.6747635244179352</v>
       </c>
       <c r="C1783" t="n">
-        <v>-0.168160341970298</v>
+        <v>-0.1681603419702979</v>
       </c>
       <c r="D1783" t="n">
         <v>0.8260323718061364</v>
@@ -52221,10 +52221,10 @@
         <v>17.84</v>
       </c>
       <c r="B1786" t="n">
-        <v>0.7009836661383824</v>
+        <v>0.7009836661383823</v>
       </c>
       <c r="C1786" t="n">
-        <v>-0.1687469374368764</v>
+        <v>-0.1687469374368763</v>
       </c>
       <c r="D1786" t="n">
         <v>0.8579412858937563</v>
@@ -52253,7 +52253,7 @@
         <v>0.7094118930253903</v>
       </c>
       <c r="C1787" t="n">
-        <v>-0.1687359613047601</v>
+        <v>-0.16873596130476</v>
       </c>
       <c r="D1787" t="n">
         <v>0.8681865186299457</v>
@@ -52279,10 +52279,10 @@
         <v>17.86</v>
       </c>
       <c r="B1788" t="n">
-        <v>0.717681367455962</v>
+        <v>0.7176813674559619</v>
       </c>
       <c r="C1788" t="n">
-        <v>-0.1686202998588209</v>
+        <v>-0.1686202998588208</v>
       </c>
       <c r="D1788" t="n">
         <v>0.8782325030768133</v>
@@ -52424,10 +52424,10 @@
         <v>17.91</v>
       </c>
       <c r="B1793" t="n">
-        <v>0.7565914726300841</v>
+        <v>0.756591472630084</v>
       </c>
       <c r="C1793" t="n">
-        <v>-0.1664448866069557</v>
+        <v>-0.1664448866069556</v>
       </c>
       <c r="D1793" t="n">
         <v>0.9254004334838554</v>
@@ -52569,7 +52569,7 @@
         <v>17.96</v>
       </c>
       <c r="B1798" t="n">
-        <v>0.791304824721437</v>
+        <v>0.7913048247214369</v>
       </c>
       <c r="C1798" t="n">
         <v>-0.1615477793949784</v>
@@ -52627,7 +52627,7 @@
         <v>17.98</v>
       </c>
       <c r="B1800" t="n">
-        <v>0.8039779997590977</v>
+        <v>0.8039779997590976</v>
       </c>
       <c r="C1800" t="n">
         <v>-0.1588120940937439</v>
@@ -52656,7 +52656,7 @@
         <v>17.99</v>
       </c>
       <c r="B1801" t="n">
-        <v>0.8100501315650315</v>
+        <v>0.8100501315650314</v>
       </c>
       <c r="C1801" t="n">
         <v>-0.1572761861850324</v>
@@ -52685,10 +52685,10 @@
         <v>18</v>
       </c>
       <c r="B1802" t="n">
-        <v>0.8159445296254572</v>
+        <v>0.815944529625457</v>
       </c>
       <c r="C1802" t="n">
-        <v>-0.155627821381377</v>
+        <v>-0.1556278213813769</v>
       </c>
       <c r="D1802" t="n">
         <v>0.9968530256132253</v>
@@ -52801,7 +52801,7 @@
         <v>18.04</v>
       </c>
       <c r="B1806" t="n">
-        <v>0.8377252105107283</v>
+        <v>0.8377252105107282</v>
       </c>
       <c r="C1806" t="n">
         <v>-0.1479052052221653</v>
@@ -52830,10 +52830,10 @@
         <v>18.05</v>
       </c>
       <c r="B1807" t="n">
-        <v>0.8427166730334744</v>
+        <v>0.8427166730334743</v>
       </c>
       <c r="C1807" t="n">
-        <v>-0.1456914700050296</v>
+        <v>-0.1456914700050295</v>
       </c>
       <c r="D1807" t="n">
         <v>1.028725983242358</v>
@@ -52949,7 +52949,7 @@
         <v>0.8608443895103213</v>
       </c>
       <c r="C1811" t="n">
-        <v>-0.1357025150750992</v>
+        <v>-0.1357025150750991</v>
       </c>
       <c r="D1811" t="n">
         <v>1.050067117758835</v>
@@ -53033,10 +53033,10 @@
         <v>18.12</v>
       </c>
       <c r="B1814" t="n">
-        <v>0.8724924269311097</v>
+        <v>0.8724924269311096</v>
       </c>
       <c r="C1814" t="n">
-        <v>-0.1270219556309228</v>
+        <v>-0.1270219556309227</v>
       </c>
       <c r="D1814" t="n">
         <v>1.063609285787966</v>
@@ -53149,7 +53149,7 @@
         <v>18.16</v>
       </c>
       <c r="B1818" t="n">
-        <v>0.8854011398352285</v>
+        <v>0.8854011398352286</v>
       </c>
       <c r="C1818" t="n">
         <v>-0.1138725284420551</v>
@@ -53239,7 +53239,7 @@
         <v>0.8931050880905969</v>
       </c>
       <c r="C1821" t="n">
-        <v>-0.1028406625094711</v>
+        <v>-0.1028406625094712</v>
       </c>
       <c r="D1821" t="n">
         <v>1.086893588398322</v>
@@ -53294,10 +53294,10 @@
         <v>18.21</v>
       </c>
       <c r="B1823" t="n">
-        <v>0.8972967915674755</v>
+        <v>0.8972967915674754</v>
       </c>
       <c r="C1823" t="n">
-        <v>-0.09493591114815714</v>
+        <v>-0.09493591114815708</v>
       </c>
       <c r="D1823" t="n">
         <v>1.091394965396234</v>
@@ -53355,7 +53355,7 @@
         <v>0.9007327481272229</v>
       </c>
       <c r="C1825" t="n">
-        <v>-0.0865963465238771</v>
+        <v>-0.08659634652387715</v>
       </c>
       <c r="D1825" t="n">
         <v>1.094938014417791</v>
@@ -53413,7 +53413,7 @@
         <v>0.9034135446147389</v>
       </c>
       <c r="C1827" t="n">
-        <v>-0.07782726553299979</v>
+        <v>-0.07782726553299985</v>
       </c>
       <c r="D1827" t="n">
         <v>1.097523177641579</v>
@@ -53468,7 +53468,7 @@
         <v>18.27</v>
       </c>
       <c r="B1829" t="n">
-        <v>0.9053405437362788</v>
+        <v>0.9053405437362787</v>
       </c>
       <c r="C1829" t="n">
         <v>-0.06863461068010879</v>
@@ -53613,10 +53613,10 @@
         <v>18.32</v>
       </c>
       <c r="B1834" t="n">
-        <v>0.9068760785317812</v>
+        <v>0.9068760785317811</v>
       </c>
       <c r="C1834" t="n">
-        <v>-0.04384459663135665</v>
+        <v>-0.04384459663135659</v>
       </c>
       <c r="D1834" t="n">
         <v>1.099057919303684</v>
@@ -53642,10 +53642,10 @@
         <v>18.33</v>
       </c>
       <c r="B1835" t="n">
-        <v>0.9066239429742333</v>
+        <v>0.9066239429742332</v>
       </c>
       <c r="C1835" t="n">
-        <v>-0.0385841951062344</v>
+        <v>-0.03858419510623434</v>
       </c>
       <c r="D1835" t="n">
         <v>1.098329064634433</v>
@@ -53671,7 +53671,7 @@
         <v>18.34</v>
       </c>
       <c r="B1836" t="n">
-        <v>0.9061866281147573</v>
+        <v>0.9061866281147571</v>
       </c>
       <c r="C1836" t="n">
         <v>-0.03322541753060848</v>
@@ -53758,10 +53758,10 @@
         <v>18.37</v>
       </c>
       <c r="B1839" t="n">
-        <v>0.9037700738666945</v>
+        <v>0.9037700738666944</v>
       </c>
       <c r="C1839" t="n">
-        <v>-0.01657017236865937</v>
+        <v>-0.01657017236865943</v>
       </c>
       <c r="D1839" t="n">
         <v>1.093069982177873</v>
@@ -53819,7 +53819,7 @@
         <v>0.9012458074637439</v>
       </c>
       <c r="C1841" t="n">
-        <v>-0.004996250505805766</v>
+        <v>-0.004996250505805822</v>
       </c>
       <c r="D1841" t="n">
         <v>1.089046553727924</v>
@@ -53932,7 +53932,7 @@
         <v>18.43</v>
       </c>
       <c r="B1845" t="n">
-        <v>0.8940358425164395</v>
+        <v>0.8940358425164394</v>
       </c>
       <c r="C1845" t="n">
         <v>0.01923408539130544</v>
@@ -53961,10 +53961,10 @@
         <v>18.44</v>
       </c>
       <c r="B1846" t="n">
-        <v>0.8917886240019128</v>
+        <v>0.8917886240019129</v>
       </c>
       <c r="C1846" t="n">
-        <v>0.02550912219516605</v>
+        <v>0.02550912219516599</v>
       </c>
       <c r="D1846" t="n">
         <v>1.074990484296623</v>
@@ -53993,7 +53993,7 @@
         <v>0.8893656023055281</v>
       </c>
       <c r="C1847" t="n">
-        <v>0.03186823317067583</v>
+        <v>0.03186823317067589</v>
       </c>
       <c r="D1847" t="n">
         <v>1.071503885424328</v>
@@ -54080,7 +54080,7 @@
         <v>0.8810531385368507</v>
       </c>
       <c r="C1850" t="n">
-        <v>0.0514347007583712</v>
+        <v>0.05143470075837125</v>
       </c>
       <c r="D1850" t="n">
         <v>1.059718468048063</v>
@@ -54164,10 +54164,10 @@
         <v>18.51</v>
       </c>
       <c r="B1853" t="n">
-        <v>0.8712013537939318</v>
+        <v>0.8712013537939317</v>
       </c>
       <c r="C1853" t="n">
-        <v>0.07170131320598322</v>
+        <v>0.07170131320598327</v>
       </c>
       <c r="D1853" t="n">
         <v>1.04597753808831</v>
@@ -54222,10 +54222,10 @@
         <v>18.53</v>
       </c>
       <c r="B1855" t="n">
-        <v>0.8637959423637872</v>
+        <v>0.8637959423637871</v>
       </c>
       <c r="C1855" t="n">
-        <v>0.08557907435095247</v>
+        <v>0.08557907435095241</v>
       </c>
       <c r="D1855" t="n">
         <v>1.035753085364426</v>
@@ -54254,7 +54254,7 @@
         <v>0.8598462124443609</v>
       </c>
       <c r="C1856" t="n">
-        <v>0.09262273350396671</v>
+        <v>0.09262273350396666</v>
       </c>
       <c r="D1856" t="n">
         <v>1.030327152769071</v>
@@ -54312,7 +54312,7 @@
         <v>0.8514601750774147</v>
       </c>
       <c r="C1858" t="n">
-        <v>0.1069105911696553</v>
+        <v>0.1069105911696552</v>
       </c>
       <c r="D1858" t="n">
         <v>1.018857478944822</v>
@@ -54657,10 +54657,10 @@
         <v>18.68</v>
       </c>
       <c r="B1870" t="n">
-        <v>0.7882152748428534</v>
+        <v>0.7882152748428533</v>
       </c>
       <c r="C1870" t="n">
-        <v>0.1974445251200253</v>
+        <v>0.1974445251200252</v>
       </c>
       <c r="D1870" t="n">
         <v>0.9336379146674533</v>
@@ -54776,7 +54776,7 @@
         <v>0.7625590308311048</v>
       </c>
       <c r="C1874" t="n">
-        <v>0.2290603328415528</v>
+        <v>0.2290603328415527</v>
       </c>
       <c r="D1874" t="n">
         <v>0.8994369072491056</v>
@@ -55066,7 +55066,7 @@
         <v>0.6896569177842327</v>
       </c>
       <c r="C1884" t="n">
-        <v>0.3099063377614208</v>
+        <v>0.3099063377614209</v>
       </c>
       <c r="D1884" t="n">
         <v>0.8028772772582654</v>
@@ -55124,7 +55124,7 @@
         <v>0.6737187419152899</v>
       </c>
       <c r="C1886" t="n">
-        <v>0.326235600613921</v>
+        <v>0.3262356006139209</v>
       </c>
       <c r="D1886" t="n">
         <v>0.7818578931431566</v>
@@ -55153,7 +55153,7 @@
         <v>0.6655952658268829</v>
       </c>
       <c r="C1887" t="n">
-        <v>0.3344046355702789</v>
+        <v>0.3344046355702788</v>
       </c>
       <c r="D1887" t="n">
         <v>0.7711547973206609</v>
@@ -55295,10 +55295,10 @@
         <v>18.9</v>
       </c>
       <c r="B1892" t="n">
-        <v>0.6235322432406641</v>
+        <v>0.623532243240664</v>
       </c>
       <c r="C1892" t="n">
-        <v>0.3751957240028373</v>
+        <v>0.3751957240028372</v>
       </c>
       <c r="D1892" t="n">
         <v>0.7158338665118315</v>
@@ -55411,7 +55411,7 @@
         <v>18.94</v>
       </c>
       <c r="B1896" t="n">
-        <v>0.5882977285440931</v>
+        <v>0.588297728544093</v>
       </c>
       <c r="C1896" t="n">
         <v>0.4076149931376203</v>
@@ -55585,10 +55585,10 @@
         <v>19</v>
       </c>
       <c r="B1902" t="n">
-        <v>0.5331919020461963</v>
+        <v>0.5331919020461962</v>
       </c>
       <c r="C1902" t="n">
-        <v>0.455512716140473</v>
+        <v>0.4555127161404729</v>
       </c>
       <c r="D1902" t="n">
         <v>0.5974942732616245</v>
@@ -55701,7 +55701,7 @@
         <v>19.04</v>
       </c>
       <c r="B1906" t="n">
-        <v>0.4951978276173766</v>
+        <v>0.4951978276173765</v>
       </c>
       <c r="C1906" t="n">
         <v>0.4867224425067729</v>
@@ -55846,7 +55846,7 @@
         <v>19.09</v>
       </c>
       <c r="B1911" t="n">
-        <v>0.4465923607699546</v>
+        <v>0.4465923607699545</v>
       </c>
       <c r="C1911" t="n">
         <v>0.5246399596922867</v>
@@ -55962,10 +55962,10 @@
         <v>19.13</v>
       </c>
       <c r="B1915" t="n">
-        <v>0.4070284034637407</v>
+        <v>0.4070284034637406</v>
       </c>
       <c r="C1915" t="n">
-        <v>0.5539042164971008</v>
+        <v>0.5539042164971006</v>
       </c>
       <c r="D1915" t="n">
         <v>0.4331291252198615</v>
@@ -56020,7 +56020,7 @@
         <v>19.15</v>
       </c>
       <c r="B1917" t="n">
-        <v>0.3870794924066654</v>
+        <v>0.3870794924066653</v>
       </c>
       <c r="C1917" t="n">
         <v>0.5681256683657244</v>
@@ -56052,7 +56052,7 @@
         <v>0.3770727791571923</v>
       </c>
       <c r="C1918" t="n">
-        <v>0.5751252268603207</v>
+        <v>0.5751252268603206</v>
       </c>
       <c r="D1918" t="n">
         <v>0.3942463951736126</v>
@@ -56107,10 +56107,10 @@
         <v>19.18</v>
       </c>
       <c r="B1920" t="n">
-        <v>0.3570083426034514</v>
+        <v>0.3570083426034513</v>
       </c>
       <c r="C1920" t="n">
-        <v>0.5888900071177798</v>
+        <v>0.5888900071177797</v>
       </c>
       <c r="D1920" t="n">
         <v>0.3682334632390718</v>
@@ -56252,10 +56252,10 @@
         <v>19.23</v>
       </c>
       <c r="B1925" t="n">
-        <v>0.3066751680183069</v>
+        <v>0.3066751680183068</v>
       </c>
       <c r="C1925" t="n">
-        <v>0.6218246582033488</v>
+        <v>0.6218246582033486</v>
       </c>
       <c r="D1925" t="n">
         <v>0.3030900922711903</v>
@@ -56310,10 +56310,10 @@
         <v>19.25</v>
       </c>
       <c r="B1927" t="n">
-        <v>0.2865291727618357</v>
+        <v>0.2865291727618358</v>
       </c>
       <c r="C1927" t="n">
-        <v>0.6343587981292738</v>
+        <v>0.6343587981292739</v>
       </c>
       <c r="D1927" t="n">
         <v>0.2770626827090945</v>
@@ -56429,7 +56429,7 @@
         <v>0.2463316503222823</v>
       </c>
       <c r="C1931" t="n">
-        <v>0.6582307731505883</v>
+        <v>0.6582307731505882</v>
       </c>
       <c r="D1931" t="n">
         <v>0.2252134398358116</v>
@@ -56545,7 +56545,7 @@
         <v>0.206398736960355</v>
       </c>
       <c r="C1935" t="n">
-        <v>0.6803910321797441</v>
+        <v>0.6803910321797439</v>
       </c>
       <c r="D1935" t="n">
         <v>0.1738224281990172</v>
@@ -56603,7 +56603,7 @@
         <v>0.1865826628231584</v>
       </c>
       <c r="C1937" t="n">
-        <v>0.6907869099866171</v>
+        <v>0.690786909986617</v>
       </c>
       <c r="D1937" t="n">
         <v>0.1483667508922251</v>
@@ -56890,7 +56890,7 @@
         <v>19.45</v>
       </c>
       <c r="B1947" t="n">
-        <v>0.08979713445435805</v>
+        <v>0.089797134454358</v>
       </c>
       <c r="C1947" t="n">
         <v>0.7352876535223916</v>
@@ -57064,10 +57064,10 @@
         <v>19.51</v>
       </c>
       <c r="B1953" t="n">
-        <v>0.03424077082144056</v>
+        <v>0.0342407708214405</v>
       </c>
       <c r="C1953" t="n">
-        <v>0.7554791108012113</v>
+        <v>0.7554791108012112</v>
       </c>
       <c r="D1953" t="n">
         <v>-0.04609075544842513</v>
@@ -57267,7 +57267,7 @@
         <v>19.58</v>
       </c>
       <c r="B1960" t="n">
-        <v>-0.02742188331422002</v>
+        <v>-0.02742188331422007</v>
       </c>
       <c r="C1960" t="n">
         <v>0.7723000697511511</v>
@@ -57296,7 +57296,7 @@
         <v>19.59</v>
       </c>
       <c r="B1961" t="n">
-        <v>-0.03591557581172883</v>
+        <v>-0.03591557581172888</v>
       </c>
       <c r="C1961" t="n">
         <v>0.7740846249978337</v>
@@ -57325,10 +57325,10 @@
         <v>19.6</v>
       </c>
       <c r="B1962" t="n">
-        <v>-0.04432467946147972</v>
+        <v>-0.04432467946147967</v>
       </c>
       <c r="C1962" t="n">
-        <v>0.7757107751069765</v>
+        <v>0.7757107751069764</v>
       </c>
       <c r="D1962" t="n">
         <v>-0.1452351243875752</v>
@@ -57383,7 +57383,7 @@
         <v>19.62</v>
       </c>
       <c r="B1964" t="n">
-        <v>-0.06088177587944449</v>
+        <v>-0.06088177587944443</v>
       </c>
       <c r="C1964" t="n">
         <v>0.7784832360469331</v>
@@ -57441,7 +57441,7 @@
         <v>19.64</v>
       </c>
       <c r="B1966" t="n">
-        <v>-0.07707881915822729</v>
+        <v>-0.07707881915822723</v>
       </c>
       <c r="C1966" t="n">
         <v>0.7806086128315328</v>
@@ -57531,7 +57531,7 @@
         <v>-0.1006692355779312</v>
       </c>
       <c r="C1969" t="n">
-        <v>0.7825656894922602</v>
+        <v>0.7825656894922604</v>
       </c>
       <c r="D1969" t="n">
         <v>-0.2156278347843514</v>
@@ -57673,7 +57673,7 @@
         <v>19.72</v>
       </c>
       <c r="B1974" t="n">
-        <v>-0.1379988268767967</v>
+        <v>-0.1379988268767966</v>
       </c>
       <c r="C1974" t="n">
         <v>0.7824858885279911</v>
@@ -57876,7 +57876,7 @@
         <v>19.79</v>
       </c>
       <c r="B1981" t="n">
-        <v>-0.1857807389464218</v>
+        <v>-0.1857807389464217</v>
       </c>
       <c r="C1981" t="n">
         <v>0.7752100866759442</v>
@@ -58021,7 +58021,7 @@
         <v>19.84</v>
       </c>
       <c r="B1986" t="n">
-        <v>-0.2164967194873972</v>
+        <v>-0.2164967194873971</v>
       </c>
       <c r="C1986" t="n">
         <v>0.7648152648486757</v>
@@ -58050,7 +58050,7 @@
         <v>19.85</v>
       </c>
       <c r="B1987" t="n">
-        <v>-0.2222844616349613</v>
+        <v>-0.2222844616349612</v>
       </c>
       <c r="C1987" t="n">
         <v>0.7622130350999288</v>
@@ -58111,7 +58111,7 @@
         <v>-0.2334970660337156</v>
       </c>
       <c r="C1989" t="n">
-        <v>0.7564845628732353</v>
+        <v>0.7564845628732352</v>
       </c>
       <c r="D1989" t="n">
         <v>-0.3773873045296798</v>
@@ -58195,7 +58195,7 @@
         <v>19.9</v>
       </c>
       <c r="B1992" t="n">
-        <v>-0.2493965647841456</v>
+        <v>-0.2493965647841457</v>
       </c>
       <c r="C1992" t="n">
         <v>0.7465823596553478</v>
@@ -58253,10 +58253,10 @@
         <v>19.92</v>
       </c>
       <c r="B1994" t="n">
-        <v>-0.2593747771755449</v>
+        <v>-0.259374777175545</v>
       </c>
       <c r="C1994" t="n">
-        <v>0.7391094130251316</v>
+        <v>0.7391094130251317</v>
       </c>
       <c r="D1994" t="n">
         <v>-0.4076272071148286</v>
@@ -58459,7 +58459,7 @@
         <v>-0.2903100896178756</v>
       </c>
       <c r="C2001" t="n">
-        <v>0.707501047848704</v>
+        <v>0.7075010478487039</v>
       </c>
       <c r="D2001" t="n">
         <v>-0.4426157044262323</v>
